--- a/data/img_labeling_2nd_round/missing.xlsx
+++ b/data/img_labeling_2nd_round/missing.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRochaSouza\Documents\Repos\Chia\data\img_labeling_2nd_round\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$784</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -823,8 +831,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +895,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -933,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,9 +981,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,6 +1016,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,14 +1192,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D784"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1206,7 +1232,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1220,7 +1246,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1234,7 +1260,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1248,7 +1274,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1262,7 +1288,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1276,7 +1302,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1290,7 +1316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1304,7 +1330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1318,7 +1344,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1332,7 +1358,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1346,7 +1372,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1360,7 +1386,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1374,7 +1400,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1388,7 +1414,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1402,7 +1428,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1416,7 +1442,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1430,7 +1456,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1444,7 +1470,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1458,7 +1484,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1472,7 +1498,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1486,7 +1512,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1500,7 +1526,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1514,7 +1540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1528,7 +1554,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1542,7 +1568,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1556,7 +1582,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1570,7 +1596,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1584,7 +1610,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1598,7 +1624,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1612,7 +1638,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1626,7 +1652,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1640,7 +1666,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1654,7 +1680,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1668,7 +1694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1682,7 +1708,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1696,7 +1722,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1710,7 +1736,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1724,7 +1750,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1752,7 +1778,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1766,7 +1792,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1780,7 +1806,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1794,7 +1820,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1808,7 +1834,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1822,7 +1848,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1836,7 +1862,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1850,7 +1876,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1864,7 +1890,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1878,7 +1904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1892,7 +1918,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1906,7 +1932,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1920,7 +1946,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1934,7 +1960,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1948,7 +1974,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1962,7 +1988,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1976,7 +2002,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1990,7 +2016,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2004,7 +2030,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2018,7 +2044,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2032,7 +2058,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2046,7 +2072,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2060,7 +2086,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2074,7 +2100,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2088,7 +2114,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2102,7 +2128,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2116,7 +2142,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2130,7 +2156,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2144,7 +2170,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2158,7 +2184,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2172,7 +2198,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2186,7 +2212,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -2200,7 +2226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -2214,7 +2240,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -2228,7 +2254,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -2242,7 +2268,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -2256,7 +2282,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -2270,7 +2296,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -2284,7 +2310,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -2298,7 +2324,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -2312,7 +2338,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -2326,7 +2352,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -2340,7 +2366,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -2368,7 +2394,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -2382,7 +2408,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -2396,7 +2422,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -2410,7 +2436,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -2424,7 +2450,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -2438,7 +2464,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -2466,7 +2492,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -2480,7 +2506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -2494,7 +2520,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -2508,7 +2534,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -2522,7 +2548,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -2536,7 +2562,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -2550,7 +2576,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -2564,7 +2590,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -2578,7 +2604,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>28</v>
       </c>
@@ -2592,7 +2618,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>29</v>
       </c>
@@ -2606,7 +2632,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -2620,7 +2646,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -2634,7 +2660,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>32</v>
       </c>
@@ -2648,7 +2674,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>33</v>
       </c>
@@ -2662,7 +2688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>34</v>
       </c>
@@ -2676,7 +2702,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>35</v>
       </c>
@@ -2690,7 +2716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>36</v>
       </c>
@@ -2704,7 +2730,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>37</v>
       </c>
@@ -2718,7 +2744,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>38</v>
       </c>
@@ -2732,7 +2758,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>39</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>40</v>
       </c>
@@ -2760,7 +2786,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41</v>
       </c>
@@ -2774,7 +2800,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42</v>
       </c>
@@ -2788,7 +2814,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43</v>
       </c>
@@ -2802,7 +2828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44</v>
       </c>
@@ -2816,7 +2842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45</v>
       </c>
@@ -2830,7 +2856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>46</v>
       </c>
@@ -2844,7 +2870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -2858,7 +2884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>48</v>
       </c>
@@ -2872,7 +2898,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>49</v>
       </c>
@@ -2886,7 +2912,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>50</v>
       </c>
@@ -2900,7 +2926,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>51</v>
       </c>
@@ -2914,7 +2940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>52</v>
       </c>
@@ -2928,7 +2954,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>53</v>
       </c>
@@ -2942,7 +2968,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>54</v>
       </c>
@@ -2956,7 +2982,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>55</v>
       </c>
@@ -2970,7 +2996,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>56</v>
       </c>
@@ -2984,7 +3010,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>57</v>
       </c>
@@ -2998,7 +3024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>58</v>
       </c>
@@ -3012,7 +3038,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>59</v>
       </c>
@@ -3026,7 +3052,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>60</v>
       </c>
@@ -3040,7 +3066,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>61</v>
       </c>
@@ -3054,7 +3080,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>62</v>
       </c>
@@ -3068,7 +3094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>63</v>
       </c>
@@ -3082,7 +3108,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>64</v>
       </c>
@@ -3096,7 +3122,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>65</v>
       </c>
@@ -3110,7 +3136,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>66</v>
       </c>
@@ -3124,7 +3150,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>67</v>
       </c>
@@ -3138,7 +3164,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>68</v>
       </c>
@@ -3152,7 +3178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>69</v>
       </c>
@@ -3166,7 +3192,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>70</v>
       </c>
@@ -3180,7 +3206,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>71</v>
       </c>
@@ -3194,7 +3220,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -3208,7 +3234,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -3222,7 +3248,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3236,7 +3262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -3250,7 +3276,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>4</v>
       </c>
@@ -3264,7 +3290,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -3278,7 +3304,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>6</v>
       </c>
@@ -3292,7 +3318,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>7</v>
       </c>
@@ -3306,7 +3332,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>8</v>
       </c>
@@ -3320,7 +3346,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>9</v>
       </c>
@@ -3334,7 +3360,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>10</v>
       </c>
@@ -3348,7 +3374,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>11</v>
       </c>
@@ -3362,7 +3388,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>12</v>
       </c>
@@ -3376,7 +3402,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>13</v>
       </c>
@@ -3390,7 +3416,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>14</v>
       </c>
@@ -3404,7 +3430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>15</v>
       </c>
@@ -3418,7 +3444,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>16</v>
       </c>
@@ -3432,7 +3458,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>17</v>
       </c>
@@ -3446,7 +3472,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>18</v>
       </c>
@@ -3460,7 +3486,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>19</v>
       </c>
@@ -3474,7 +3500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>20</v>
       </c>
@@ -3488,7 +3514,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>21</v>
       </c>
@@ -3502,7 +3528,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>22</v>
       </c>
@@ -3516,7 +3542,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>23</v>
       </c>
@@ -3530,7 +3556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>24</v>
       </c>
@@ -3544,7 +3570,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>25</v>
       </c>
@@ -3558,7 +3584,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>26</v>
       </c>
@@ -3572,7 +3598,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>27</v>
       </c>
@@ -3586,7 +3612,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>28</v>
       </c>
@@ -3600,7 +3626,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>29</v>
       </c>
@@ -3614,7 +3640,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>30</v>
       </c>
@@ -3628,7 +3654,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>31</v>
       </c>
@@ -3642,7 +3668,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>32</v>
       </c>
@@ -3656,7 +3682,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>33</v>
       </c>
@@ -3670,7 +3696,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>34</v>
       </c>
@@ -3684,7 +3710,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>35</v>
       </c>
@@ -3698,7 +3724,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>36</v>
       </c>
@@ -3712,7 +3738,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>37</v>
       </c>
@@ -3726,7 +3752,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>38</v>
       </c>
@@ -3740,7 +3766,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>39</v>
       </c>
@@ -3754,7 +3780,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>40</v>
       </c>
@@ -3768,7 +3794,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>41</v>
       </c>
@@ -3782,7 +3808,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42</v>
       </c>
@@ -3796,7 +3822,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43</v>
       </c>
@@ -3810,7 +3836,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44</v>
       </c>
@@ -3824,7 +3850,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45</v>
       </c>
@@ -3838,7 +3864,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>46</v>
       </c>
@@ -3852,7 +3878,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>47</v>
       </c>
@@ -3866,7 +3892,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>48</v>
       </c>
@@ -3880,7 +3906,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>49</v>
       </c>
@@ -3894,7 +3920,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>50</v>
       </c>
@@ -3908,7 +3934,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>51</v>
       </c>
@@ -3922,7 +3948,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>52</v>
       </c>
@@ -3936,7 +3962,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>53</v>
       </c>
@@ -3950,7 +3976,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>54</v>
       </c>
@@ -3964,7 +3990,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>55</v>
       </c>
@@ -3978,7 +4004,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>56</v>
       </c>
@@ -3992,7 +4018,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>57</v>
       </c>
@@ -4006,7 +4032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>58</v>
       </c>
@@ -4020,7 +4046,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>59</v>
       </c>
@@ -4034,7 +4060,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>60</v>
       </c>
@@ -4048,7 +4074,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>61</v>
       </c>
@@ -4062,7 +4088,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>62</v>
       </c>
@@ -4076,7 +4102,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>63</v>
       </c>
@@ -4090,7 +4116,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>64</v>
       </c>
@@ -4104,7 +4130,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>65</v>
       </c>
@@ -4118,7 +4144,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>66</v>
       </c>
@@ -4132,7 +4158,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>67</v>
       </c>
@@ -4146,7 +4172,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>68</v>
       </c>
@@ -4160,7 +4186,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>69</v>
       </c>
@@ -4174,7 +4200,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>70</v>
       </c>
@@ -4188,7 +4214,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -4202,7 +4228,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -4216,7 +4242,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -4230,7 +4256,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>3</v>
       </c>
@@ -4244,7 +4270,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>4</v>
       </c>
@@ -4258,7 +4284,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>5</v>
       </c>
@@ -4272,7 +4298,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>6</v>
       </c>
@@ -4286,7 +4312,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>7</v>
       </c>
@@ -4300,7 +4326,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>8</v>
       </c>
@@ -4314,7 +4340,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>9</v>
       </c>
@@ -4328,7 +4354,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>10</v>
       </c>
@@ -4342,7 +4368,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>11</v>
       </c>
@@ -4356,7 +4382,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>12</v>
       </c>
@@ -4370,7 +4396,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>13</v>
       </c>
@@ -4384,7 +4410,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>14</v>
       </c>
@@ -4398,7 +4424,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>15</v>
       </c>
@@ -4412,7 +4438,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>16</v>
       </c>
@@ -4426,7 +4452,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>17</v>
       </c>
@@ -4440,7 +4466,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>18</v>
       </c>
@@ -4454,7 +4480,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>19</v>
       </c>
@@ -4468,7 +4494,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>20</v>
       </c>
@@ -4482,7 +4508,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>21</v>
       </c>
@@ -4496,7 +4522,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>22</v>
       </c>
@@ -4510,7 +4536,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>23</v>
       </c>
@@ -4524,7 +4550,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>24</v>
       </c>
@@ -4538,7 +4564,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>25</v>
       </c>
@@ -4552,7 +4578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>26</v>
       </c>
@@ -4566,7 +4592,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>27</v>
       </c>
@@ -4580,7 +4606,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>28</v>
       </c>
@@ -4594,7 +4620,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>29</v>
       </c>
@@ -4608,7 +4634,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>30</v>
       </c>
@@ -4622,7 +4648,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>31</v>
       </c>
@@ -4636,7 +4662,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>32</v>
       </c>
@@ -4650,7 +4676,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>33</v>
       </c>
@@ -4664,7 +4690,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>34</v>
       </c>
@@ -4678,7 +4704,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>35</v>
       </c>
@@ -4692,7 +4718,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>36</v>
       </c>
@@ -4706,7 +4732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>37</v>
       </c>
@@ -4720,7 +4746,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>38</v>
       </c>
@@ -4734,7 +4760,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>39</v>
       </c>
@@ -4748,7 +4774,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>40</v>
       </c>
@@ -4762,7 +4788,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>41</v>
       </c>
@@ -4776,7 +4802,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42</v>
       </c>
@@ -4790,7 +4816,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>43</v>
       </c>
@@ -4804,7 +4830,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44</v>
       </c>
@@ -4818,7 +4844,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45</v>
       </c>
@@ -4832,7 +4858,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>46</v>
       </c>
@@ -4846,7 +4872,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>47</v>
       </c>
@@ -4860,7 +4886,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>48</v>
       </c>
@@ -4874,7 +4900,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>49</v>
       </c>
@@ -4888,7 +4914,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>50</v>
       </c>
@@ -4902,7 +4928,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>51</v>
       </c>
@@ -4916,7 +4942,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>52</v>
       </c>
@@ -4930,7 +4956,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>53</v>
       </c>
@@ -4944,7 +4970,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>54</v>
       </c>
@@ -4958,7 +4984,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>55</v>
       </c>
@@ -4972,7 +4998,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>56</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>57</v>
       </c>
@@ -5000,7 +5026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>58</v>
       </c>
@@ -5014,7 +5040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>59</v>
       </c>
@@ -5028,7 +5054,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>60</v>
       </c>
@@ -5042,7 +5068,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>61</v>
       </c>
@@ -5056,7 +5082,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>62</v>
       </c>
@@ -5070,7 +5096,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>63</v>
       </c>
@@ -5084,7 +5110,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>64</v>
       </c>
@@ -5098,7 +5124,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>65</v>
       </c>
@@ -5112,7 +5138,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>66</v>
       </c>
@@ -5126,7 +5152,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>67</v>
       </c>
@@ -5140,7 +5166,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>68</v>
       </c>
@@ -5154,7 +5180,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>69</v>
       </c>
@@ -5168,7 +5194,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>70</v>
       </c>
@@ -5182,7 +5208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -5196,7 +5222,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1</v>
       </c>
@@ -5210,7 +5236,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -5224,7 +5250,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>3</v>
       </c>
@@ -5238,7 +5264,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>4</v>
       </c>
@@ -5252,7 +5278,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>5</v>
       </c>
@@ -5266,7 +5292,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>6</v>
       </c>
@@ -5280,7 +5306,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>7</v>
       </c>
@@ -5294,7 +5320,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>8</v>
       </c>
@@ -5308,7 +5334,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>9</v>
       </c>
@@ -5322,7 +5348,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>10</v>
       </c>
@@ -5336,7 +5362,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>11</v>
       </c>
@@ -5350,7 +5376,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>12</v>
       </c>
@@ -5364,7 +5390,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>13</v>
       </c>
@@ -5378,7 +5404,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>14</v>
       </c>
@@ -5392,7 +5418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>15</v>
       </c>
@@ -5406,7 +5432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>16</v>
       </c>
@@ -5420,7 +5446,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>17</v>
       </c>
@@ -5434,7 +5460,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>18</v>
       </c>
@@ -5448,7 +5474,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>19</v>
       </c>
@@ -5462,7 +5488,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>20</v>
       </c>
@@ -5476,7 +5502,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>21</v>
       </c>
@@ -5490,7 +5516,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>22</v>
       </c>
@@ -5504,7 +5530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>23</v>
       </c>
@@ -5518,7 +5544,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>24</v>
       </c>
@@ -5532,7 +5558,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>25</v>
       </c>
@@ -5546,7 +5572,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>26</v>
       </c>
@@ -5560,7 +5586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>27</v>
       </c>
@@ -5574,7 +5600,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>28</v>
       </c>
@@ -5588,7 +5614,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>29</v>
       </c>
@@ -5602,7 +5628,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>30</v>
       </c>
@@ -5616,7 +5642,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>31</v>
       </c>
@@ -5630,7 +5656,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>32</v>
       </c>
@@ -5644,7 +5670,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>33</v>
       </c>
@@ -5658,7 +5684,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>34</v>
       </c>
@@ -5672,7 +5698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>35</v>
       </c>
@@ -5686,7 +5712,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36</v>
       </c>
@@ -5700,7 +5726,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>37</v>
       </c>
@@ -5714,7 +5740,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>38</v>
       </c>
@@ -5728,7 +5754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>39</v>
       </c>
@@ -5742,7 +5768,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>40</v>
       </c>
@@ -5756,7 +5782,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>41</v>
       </c>
@@ -5770,7 +5796,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>42</v>
       </c>
@@ -5784,7 +5810,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>43</v>
       </c>
@@ -5798,7 +5824,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44</v>
       </c>
@@ -5812,7 +5838,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>45</v>
       </c>
@@ -5826,7 +5852,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>46</v>
       </c>
@@ -5840,7 +5866,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>47</v>
       </c>
@@ -5854,7 +5880,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>48</v>
       </c>
@@ -5868,7 +5894,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>49</v>
       </c>
@@ -5882,7 +5908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>50</v>
       </c>
@@ -5896,7 +5922,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>51</v>
       </c>
@@ -5910,7 +5936,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>52</v>
       </c>
@@ -5924,7 +5950,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>53</v>
       </c>
@@ -5938,7 +5964,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>54</v>
       </c>
@@ -5952,7 +5978,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>55</v>
       </c>
@@ -5966,7 +5992,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>56</v>
       </c>
@@ -5980,7 +6006,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>57</v>
       </c>
@@ -5994,7 +6020,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>58</v>
       </c>
@@ -6008,7 +6034,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>59</v>
       </c>
@@ -6022,7 +6048,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>60</v>
       </c>
@@ -6036,7 +6062,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>61</v>
       </c>
@@ -6050,7 +6076,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>62</v>
       </c>
@@ -6064,7 +6090,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>63</v>
       </c>
@@ -6078,7 +6104,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>64</v>
       </c>
@@ -6092,7 +6118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>65</v>
       </c>
@@ -6106,7 +6132,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>66</v>
       </c>
@@ -6120,7 +6146,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>67</v>
       </c>
@@ -6134,7 +6160,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>68</v>
       </c>
@@ -6148,7 +6174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>69</v>
       </c>
@@ -6162,7 +6188,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>70</v>
       </c>
@@ -6176,7 +6202,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>71</v>
       </c>
@@ -6190,7 +6216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -6204,7 +6230,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>1</v>
       </c>
@@ -6218,7 +6244,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -6232,7 +6258,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>3</v>
       </c>
@@ -6246,7 +6272,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>4</v>
       </c>
@@ -6260,7 +6286,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>5</v>
       </c>
@@ -6274,7 +6300,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>6</v>
       </c>
@@ -6288,7 +6314,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>7</v>
       </c>
@@ -6302,7 +6328,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>8</v>
       </c>
@@ -6316,7 +6342,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>9</v>
       </c>
@@ -6330,7 +6356,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>10</v>
       </c>
@@ -6344,7 +6370,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>11</v>
       </c>
@@ -6358,7 +6384,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>12</v>
       </c>
@@ -6372,7 +6398,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>13</v>
       </c>
@@ -6386,7 +6412,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>14</v>
       </c>
@@ -6400,7 +6426,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>15</v>
       </c>
@@ -6414,7 +6440,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>16</v>
       </c>
@@ -6428,7 +6454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>17</v>
       </c>
@@ -6442,7 +6468,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>18</v>
       </c>
@@ -6456,7 +6482,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>19</v>
       </c>
@@ -6470,7 +6496,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>20</v>
       </c>
@@ -6484,7 +6510,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>21</v>
       </c>
@@ -6498,7 +6524,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>22</v>
       </c>
@@ -6512,7 +6538,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>23</v>
       </c>
@@ -6526,7 +6552,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>24</v>
       </c>
@@ -6540,7 +6566,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>25</v>
       </c>
@@ -6554,7 +6580,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>26</v>
       </c>
@@ -6568,7 +6594,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>27</v>
       </c>
@@ -6582,7 +6608,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>28</v>
       </c>
@@ -6596,7 +6622,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>29</v>
       </c>
@@ -6610,7 +6636,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>30</v>
       </c>
@@ -6624,7 +6650,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>31</v>
       </c>
@@ -6638,7 +6664,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>32</v>
       </c>
@@ -6652,7 +6678,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>33</v>
       </c>
@@ -6666,7 +6692,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>34</v>
       </c>
@@ -6680,7 +6706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>35</v>
       </c>
@@ -6694,7 +6720,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>36</v>
       </c>
@@ -6708,7 +6734,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>37</v>
       </c>
@@ -6722,7 +6748,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>38</v>
       </c>
@@ -6736,7 +6762,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>39</v>
       </c>
@@ -6750,7 +6776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>40</v>
       </c>
@@ -6764,7 +6790,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>41</v>
       </c>
@@ -6778,7 +6804,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>42</v>
       </c>
@@ -6792,7 +6818,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>43</v>
       </c>
@@ -6806,7 +6832,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44</v>
       </c>
@@ -6820,7 +6846,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>45</v>
       </c>
@@ -6834,7 +6860,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>46</v>
       </c>
@@ -6848,7 +6874,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>47</v>
       </c>
@@ -6862,7 +6888,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>48</v>
       </c>
@@ -6876,7 +6902,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>49</v>
       </c>
@@ -6890,7 +6916,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>50</v>
       </c>
@@ -6904,7 +6930,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>51</v>
       </c>
@@ -6918,7 +6944,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>52</v>
       </c>
@@ -6932,7 +6958,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>53</v>
       </c>
@@ -6946,7 +6972,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>54</v>
       </c>
@@ -6960,7 +6986,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>55</v>
       </c>
@@ -6974,7 +7000,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>56</v>
       </c>
@@ -6988,7 +7014,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>57</v>
       </c>
@@ -7002,7 +7028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>58</v>
       </c>
@@ -7016,7 +7042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>59</v>
       </c>
@@ -7030,7 +7056,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>60</v>
       </c>
@@ -7044,7 +7070,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>61</v>
       </c>
@@ -7058,7 +7084,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>62</v>
       </c>
@@ -7072,7 +7098,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>63</v>
       </c>
@@ -7086,7 +7112,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>64</v>
       </c>
@@ -7100,7 +7126,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>65</v>
       </c>
@@ -7114,7 +7140,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>66</v>
       </c>
@@ -7128,7 +7154,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>67</v>
       </c>
@@ -7142,7 +7168,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>68</v>
       </c>
@@ -7156,7 +7182,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>69</v>
       </c>
@@ -7170,7 +7196,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>70</v>
       </c>
@@ -7184,7 +7210,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>71</v>
       </c>
@@ -7198,7 +7224,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -7212,7 +7238,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>1</v>
       </c>
@@ -7226,7 +7252,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -7240,7 +7266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>3</v>
       </c>
@@ -7254,7 +7280,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>4</v>
       </c>
@@ -7268,7 +7294,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>5</v>
       </c>
@@ -7282,7 +7308,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>6</v>
       </c>
@@ -7296,7 +7322,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>7</v>
       </c>
@@ -7310,7 +7336,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>8</v>
       </c>
@@ -7324,7 +7350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>9</v>
       </c>
@@ -7338,7 +7364,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>10</v>
       </c>
@@ -7352,7 +7378,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>11</v>
       </c>
@@ -7366,7 +7392,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>12</v>
       </c>
@@ -7380,7 +7406,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>13</v>
       </c>
@@ -7394,7 +7420,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>14</v>
       </c>
@@ -7408,7 +7434,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>15</v>
       </c>
@@ -7422,7 +7448,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>16</v>
       </c>
@@ -7436,7 +7462,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>17</v>
       </c>
@@ -7450,7 +7476,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>18</v>
       </c>
@@ -7464,7 +7490,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>19</v>
       </c>
@@ -7478,7 +7504,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>20</v>
       </c>
@@ -7492,7 +7518,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>21</v>
       </c>
@@ -7506,7 +7532,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>22</v>
       </c>
@@ -7520,7 +7546,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>23</v>
       </c>
@@ -7534,7 +7560,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>24</v>
       </c>
@@ -7548,7 +7574,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>25</v>
       </c>
@@ -7562,7 +7588,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>26</v>
       </c>
@@ -7576,7 +7602,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>27</v>
       </c>
@@ -7590,7 +7616,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>28</v>
       </c>
@@ -7604,7 +7630,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>29</v>
       </c>
@@ -7618,7 +7644,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>30</v>
       </c>
@@ -7632,7 +7658,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>31</v>
       </c>
@@ -7646,7 +7672,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>32</v>
       </c>
@@ -7660,7 +7686,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>33</v>
       </c>
@@ -7674,7 +7700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>34</v>
       </c>
@@ -7688,7 +7714,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>35</v>
       </c>
@@ -7702,7 +7728,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>36</v>
       </c>
@@ -7716,7 +7742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>37</v>
       </c>
@@ -7730,7 +7756,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>38</v>
       </c>
@@ -7744,7 +7770,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>39</v>
       </c>
@@ -7758,7 +7784,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>40</v>
       </c>
@@ -7772,7 +7798,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>41</v>
       </c>
@@ -7786,7 +7812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>42</v>
       </c>
@@ -7800,7 +7826,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>43</v>
       </c>
@@ -7814,7 +7840,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44</v>
       </c>
@@ -7828,7 +7854,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>45</v>
       </c>
@@ -7842,7 +7868,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>46</v>
       </c>
@@ -7856,7 +7882,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>47</v>
       </c>
@@ -7870,7 +7896,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>48</v>
       </c>
@@ -7884,7 +7910,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>49</v>
       </c>
@@ -7898,7 +7924,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>50</v>
       </c>
@@ -7912,7 +7938,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>51</v>
       </c>
@@ -7926,7 +7952,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>52</v>
       </c>
@@ -7940,7 +7966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>53</v>
       </c>
@@ -7954,7 +7980,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>54</v>
       </c>
@@ -7968,7 +7994,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>55</v>
       </c>
@@ -7982,7 +8008,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>56</v>
       </c>
@@ -7996,7 +8022,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>57</v>
       </c>
@@ -8010,7 +8036,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>58</v>
       </c>
@@ -8024,7 +8050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>59</v>
       </c>
@@ -8038,7 +8064,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>60</v>
       </c>
@@ -8052,7 +8078,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>61</v>
       </c>
@@ -8066,7 +8092,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>62</v>
       </c>
@@ -8080,7 +8106,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>63</v>
       </c>
@@ -8094,7 +8120,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>64</v>
       </c>
@@ -8108,7 +8134,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>65</v>
       </c>
@@ -8122,7 +8148,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>66</v>
       </c>
@@ -8136,7 +8162,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>67</v>
       </c>
@@ -8150,7 +8176,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>68</v>
       </c>
@@ -8164,7 +8190,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>69</v>
       </c>
@@ -8178,7 +8204,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>70</v>
       </c>
@@ -8192,7 +8218,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>71</v>
       </c>
@@ -8206,7 +8232,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -8220,7 +8246,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>1</v>
       </c>
@@ -8234,7 +8260,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>2</v>
       </c>
@@ -8248,7 +8274,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>3</v>
       </c>
@@ -8262,7 +8288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>4</v>
       </c>
@@ -8276,7 +8302,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>5</v>
       </c>
@@ -8290,7 +8316,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>6</v>
       </c>
@@ -8304,7 +8330,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>7</v>
       </c>
@@ -8318,7 +8344,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>8</v>
       </c>
@@ -8332,7 +8358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>9</v>
       </c>
@@ -8346,7 +8372,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>10</v>
       </c>
@@ -8360,7 +8386,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>11</v>
       </c>
@@ -8374,7 +8400,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>12</v>
       </c>
@@ -8388,7 +8414,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>13</v>
       </c>
@@ -8402,7 +8428,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>14</v>
       </c>
@@ -8416,7 +8442,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>15</v>
       </c>
@@ -8430,7 +8456,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>16</v>
       </c>
@@ -8444,7 +8470,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>17</v>
       </c>
@@ -8458,7 +8484,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>18</v>
       </c>
@@ -8472,7 +8498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>19</v>
       </c>
@@ -8486,7 +8512,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>20</v>
       </c>
@@ -8500,7 +8526,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>21</v>
       </c>
@@ -8514,7 +8540,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>22</v>
       </c>
@@ -8528,7 +8554,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>23</v>
       </c>
@@ -8542,7 +8568,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>24</v>
       </c>
@@ -8556,7 +8582,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>25</v>
       </c>
@@ -8570,7 +8596,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>26</v>
       </c>
@@ -8584,7 +8610,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>27</v>
       </c>
@@ -8598,7 +8624,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>28</v>
       </c>
@@ -8612,7 +8638,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>29</v>
       </c>
@@ -8626,7 +8652,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>30</v>
       </c>
@@ -8640,7 +8666,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>31</v>
       </c>
@@ -8654,7 +8680,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>32</v>
       </c>
@@ -8668,7 +8694,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>33</v>
       </c>
@@ -8682,7 +8708,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>34</v>
       </c>
@@ -8696,7 +8722,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>35</v>
       </c>
@@ -8710,7 +8736,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>36</v>
       </c>
@@ -8724,7 +8750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>37</v>
       </c>
@@ -8738,7 +8764,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>38</v>
       </c>
@@ -8752,7 +8778,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>39</v>
       </c>
@@ -8766,7 +8792,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>40</v>
       </c>
@@ -8780,7 +8806,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>41</v>
       </c>
@@ -8794,7 +8820,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>42</v>
       </c>
@@ -8808,7 +8834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>43</v>
       </c>
@@ -8822,7 +8848,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44</v>
       </c>
@@ -8836,7 +8862,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>45</v>
       </c>
@@ -8850,7 +8876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>46</v>
       </c>
@@ -8864,7 +8890,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>47</v>
       </c>
@@ -8878,7 +8904,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>48</v>
       </c>
@@ -8892,7 +8918,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>49</v>
       </c>
@@ -8906,7 +8932,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>50</v>
       </c>
@@ -8920,7 +8946,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>51</v>
       </c>
@@ -8934,7 +8960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>52</v>
       </c>
@@ -8948,7 +8974,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>53</v>
       </c>
@@ -8962,7 +8988,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>54</v>
       </c>
@@ -8976,7 +9002,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>55</v>
       </c>
@@ -8990,7 +9016,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>56</v>
       </c>
@@ -9004,7 +9030,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>57</v>
       </c>
@@ -9018,7 +9044,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>58</v>
       </c>
@@ -9032,7 +9058,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>59</v>
       </c>
@@ -9046,7 +9072,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>60</v>
       </c>
@@ -9060,7 +9086,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>61</v>
       </c>
@@ -9074,7 +9100,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>62</v>
       </c>
@@ -9088,7 +9114,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>63</v>
       </c>
@@ -9102,7 +9128,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>64</v>
       </c>
@@ -9116,7 +9142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>65</v>
       </c>
@@ -9130,7 +9156,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>66</v>
       </c>
@@ -9144,7 +9170,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>67</v>
       </c>
@@ -9158,7 +9184,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>68</v>
       </c>
@@ -9172,7 +9198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>69</v>
       </c>
@@ -9186,7 +9212,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>70</v>
       </c>
@@ -9200,7 +9226,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>71</v>
       </c>
@@ -9214,7 +9240,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>72</v>
       </c>
@@ -9228,7 +9254,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>73</v>
       </c>
@@ -9242,7 +9268,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>74</v>
       </c>
@@ -9256,7 +9282,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>75</v>
       </c>
@@ -9270,7 +9296,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>76</v>
       </c>
@@ -9284,7 +9310,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>77</v>
       </c>
@@ -9298,7 +9324,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>78</v>
       </c>
@@ -9312,7 +9338,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>79</v>
       </c>
@@ -9326,7 +9352,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>80</v>
       </c>
@@ -9340,7 +9366,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>81</v>
       </c>
@@ -9354,7 +9380,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>82</v>
       </c>
@@ -9368,7 +9394,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>83</v>
       </c>
@@ -9382,7 +9408,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>84</v>
       </c>
@@ -9396,7 +9422,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>85</v>
       </c>
@@ -9410,7 +9436,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>86</v>
       </c>
@@ -9424,7 +9450,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>87</v>
       </c>
@@ -9438,7 +9464,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>88</v>
       </c>
@@ -9452,7 +9478,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>89</v>
       </c>
@@ -9466,7 +9492,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>90</v>
       </c>
@@ -9480,7 +9506,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>91</v>
       </c>
@@ -9494,7 +9520,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>92</v>
       </c>
@@ -9508,7 +9534,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>93</v>
       </c>
@@ -9522,7 +9548,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>94</v>
       </c>
@@ -9536,7 +9562,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>95</v>
       </c>
@@ -9550,7 +9576,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>96</v>
       </c>
@@ -9564,7 +9590,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>97</v>
       </c>
@@ -9578,7 +9604,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>98</v>
       </c>
@@ -9592,7 +9618,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>99</v>
       </c>
@@ -9606,7 +9632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -9620,7 +9646,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>1</v>
       </c>
@@ -9634,7 +9660,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>2</v>
       </c>
@@ -9648,7 +9674,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>3</v>
       </c>
@@ -9662,7 +9688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>4</v>
       </c>
@@ -9676,7 +9702,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>5</v>
       </c>
@@ -9690,7 +9716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>6</v>
       </c>
@@ -9704,7 +9730,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>7</v>
       </c>
@@ -9718,7 +9744,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>8</v>
       </c>
@@ -9732,7 +9758,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>9</v>
       </c>
@@ -9746,7 +9772,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>10</v>
       </c>
@@ -9760,7 +9786,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>11</v>
       </c>
@@ -9774,7 +9800,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>12</v>
       </c>
@@ -9788,7 +9814,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>13</v>
       </c>
@@ -9802,7 +9828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>14</v>
       </c>
@@ -9816,7 +9842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>15</v>
       </c>
@@ -9830,7 +9856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>16</v>
       </c>
@@ -9844,7 +9870,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>17</v>
       </c>
@@ -9858,7 +9884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>18</v>
       </c>
@@ -9872,7 +9898,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>19</v>
       </c>
@@ -9886,7 +9912,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>20</v>
       </c>
@@ -9900,7 +9926,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>21</v>
       </c>
@@ -9914,7 +9940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>22</v>
       </c>
@@ -9928,7 +9954,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>23</v>
       </c>
@@ -9942,7 +9968,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>24</v>
       </c>
@@ -9956,7 +9982,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>25</v>
       </c>
@@ -9970,7 +9996,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>26</v>
       </c>
@@ -9984,7 +10010,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>27</v>
       </c>
@@ -9998,7 +10024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>28</v>
       </c>
@@ -10012,7 +10038,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>29</v>
       </c>
@@ -10026,7 +10052,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>30</v>
       </c>
@@ -10040,7 +10066,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>31</v>
       </c>
@@ -10054,7 +10080,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>32</v>
       </c>
@@ -10068,7 +10094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>33</v>
       </c>
@@ -10082,7 +10108,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>34</v>
       </c>
@@ -10096,7 +10122,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>35</v>
       </c>
@@ -10110,7 +10136,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>36</v>
       </c>
@@ -10124,7 +10150,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>37</v>
       </c>
@@ -10138,7 +10164,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>38</v>
       </c>
@@ -10152,7 +10178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>39</v>
       </c>
@@ -10166,7 +10192,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>40</v>
       </c>
@@ -10180,7 +10206,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>41</v>
       </c>
@@ -10194,7 +10220,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>42</v>
       </c>
@@ -10208,7 +10234,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>43</v>
       </c>
@@ -10222,7 +10248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44</v>
       </c>
@@ -10236,7 +10262,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>45</v>
       </c>
@@ -10250,7 +10276,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>46</v>
       </c>
@@ -10264,7 +10290,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>47</v>
       </c>
@@ -10278,7 +10304,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>48</v>
       </c>
@@ -10292,7 +10318,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>49</v>
       </c>
@@ -10306,7 +10332,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>50</v>
       </c>
@@ -10320,7 +10346,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>51</v>
       </c>
@@ -10334,7 +10360,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>52</v>
       </c>
@@ -10348,7 +10374,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>53</v>
       </c>
@@ -10362,7 +10388,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>54</v>
       </c>
@@ -10376,7 +10402,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>55</v>
       </c>
@@ -10390,7 +10416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>56</v>
       </c>
@@ -10404,7 +10430,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>57</v>
       </c>
@@ -10418,7 +10444,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>58</v>
       </c>
@@ -10432,7 +10458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>59</v>
       </c>
@@ -10446,7 +10472,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>60</v>
       </c>
@@ -10460,7 +10486,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>61</v>
       </c>
@@ -10474,7 +10500,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>62</v>
       </c>
@@ -10488,7 +10514,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>63</v>
       </c>
@@ -10502,7 +10528,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>64</v>
       </c>
@@ -10516,7 +10542,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>65</v>
       </c>
@@ -10530,7 +10556,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>66</v>
       </c>
@@ -10544,7 +10570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>67</v>
       </c>
@@ -10558,7 +10584,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>68</v>
       </c>
@@ -10572,7 +10598,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>69</v>
       </c>
@@ -10586,7 +10612,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>70</v>
       </c>
@@ -10600,7 +10626,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>71</v>
       </c>
@@ -10614,7 +10640,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>72</v>
       </c>
@@ -10628,7 +10654,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>73</v>
       </c>
@@ -10642,7 +10668,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>74</v>
       </c>
@@ -10656,7 +10682,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>75</v>
       </c>
@@ -10670,7 +10696,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>76</v>
       </c>
@@ -10684,7 +10710,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>77</v>
       </c>
@@ -10698,7 +10724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>78</v>
       </c>
@@ -10712,7 +10738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>79</v>
       </c>
@@ -10726,7 +10752,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>80</v>
       </c>
@@ -10740,7 +10766,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>81</v>
       </c>
@@ -10754,7 +10780,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>82</v>
       </c>
@@ -10768,7 +10794,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>83</v>
       </c>
@@ -10782,7 +10808,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>84</v>
       </c>
@@ -10796,7 +10822,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>85</v>
       </c>
@@ -10810,7 +10836,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>86</v>
       </c>
@@ -10824,7 +10850,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>87</v>
       </c>
@@ -10838,7 +10864,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>88</v>
       </c>
@@ -10852,7 +10878,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>89</v>
       </c>
@@ -10866,7 +10892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>90</v>
       </c>
@@ -10880,7 +10906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>91</v>
       </c>
@@ -10894,7 +10920,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>92</v>
       </c>
@@ -10908,7 +10934,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>93</v>
       </c>
@@ -10922,7 +10948,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>94</v>
       </c>
@@ -10936,7 +10962,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>95</v>
       </c>
@@ -10950,7 +10976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>96</v>
       </c>
@@ -10964,7 +10990,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>97</v>
       </c>
@@ -10978,7 +11004,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>98</v>
       </c>
@@ -10992,7 +11018,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>99</v>
       </c>
@@ -11006,7 +11032,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>100</v>
       </c>
@@ -11020,7 +11046,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>101</v>
       </c>
@@ -11034,7 +11060,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>102</v>
       </c>
@@ -11048,7 +11074,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>103</v>
       </c>
@@ -11062,7 +11088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>104</v>
       </c>
@@ -11076,7 +11102,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>105</v>
       </c>
@@ -11090,7 +11116,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>106</v>
       </c>
@@ -11104,7 +11130,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>107</v>
       </c>
@@ -11118,7 +11144,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>108</v>
       </c>
@@ -11132,7 +11158,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>109</v>
       </c>
@@ -11146,7 +11172,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>110</v>
       </c>
@@ -11160,7 +11186,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>111</v>
       </c>
@@ -11174,7 +11200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>112</v>
       </c>
@@ -11188,7 +11214,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>113</v>
       </c>
@@ -11202,7 +11228,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>114</v>
       </c>
@@ -11216,7 +11242,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>115</v>
       </c>
@@ -11230,7 +11256,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>116</v>
       </c>
@@ -11244,7 +11270,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>117</v>
       </c>
@@ -11258,7 +11284,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>118</v>
       </c>
@@ -11272,7 +11298,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>119</v>
       </c>
@@ -11286,7 +11312,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>120</v>
       </c>
@@ -11300,7 +11326,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>121</v>
       </c>
@@ -11314,7 +11340,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>122</v>
       </c>
@@ -11328,7 +11354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>123</v>
       </c>
@@ -11342,7 +11368,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>124</v>
       </c>
@@ -11356,7 +11382,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>125</v>
       </c>
@@ -11370,7 +11396,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>126</v>
       </c>
@@ -11384,7 +11410,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>127</v>
       </c>
@@ -11398,7 +11424,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>128</v>
       </c>
@@ -11412,7 +11438,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>129</v>
       </c>
@@ -11426,7 +11452,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>130</v>
       </c>
@@ -11440,7 +11466,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>131</v>
       </c>
@@ -11454,7 +11480,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>132</v>
       </c>
@@ -11468,7 +11494,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>133</v>
       </c>
@@ -11482,7 +11508,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>134</v>
       </c>
@@ -11496,7 +11522,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>135</v>
       </c>
@@ -11510,7 +11536,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>136</v>
       </c>
@@ -11524,7 +11550,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>137</v>
       </c>
@@ -11538,7 +11564,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>138</v>
       </c>
@@ -11552,7 +11578,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>139</v>
       </c>
@@ -11566,7 +11592,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>140</v>
       </c>
@@ -11580,7 +11606,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>141</v>
       </c>
@@ -11594,7 +11620,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>142</v>
       </c>
@@ -11608,7 +11634,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>143</v>
       </c>
@@ -11622,7 +11648,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>144</v>
       </c>
@@ -11636,7 +11662,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>145</v>
       </c>
@@ -11650,7 +11676,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>146</v>
       </c>
@@ -11664,7 +11690,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>147</v>
       </c>
@@ -11678,7 +11704,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>148</v>
       </c>
@@ -11692,7 +11718,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>149</v>
       </c>
@@ -11706,7 +11732,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>150</v>
       </c>
@@ -11720,7 +11746,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>151</v>
       </c>
@@ -11734,7 +11760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>152</v>
       </c>
@@ -11748,7 +11774,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>153</v>
       </c>
@@ -11762,7 +11788,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>154</v>
       </c>
@@ -11776,7 +11802,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>155</v>
       </c>
@@ -11790,7 +11816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>156</v>
       </c>
@@ -11804,7 +11830,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>157</v>
       </c>
@@ -11818,7 +11844,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>158</v>
       </c>
@@ -11832,7 +11858,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>159</v>
       </c>
@@ -11846,7 +11872,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>160</v>
       </c>
@@ -11860,7 +11886,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>161</v>
       </c>
@@ -11874,7 +11900,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>162</v>
       </c>
@@ -11888,7 +11914,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>163</v>
       </c>
@@ -11902,7 +11928,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>164</v>
       </c>
@@ -11916,7 +11942,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>165</v>
       </c>
@@ -11930,7 +11956,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>166</v>
       </c>
@@ -11944,7 +11970,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>167</v>
       </c>
@@ -11958,7 +11984,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>168</v>
       </c>
@@ -11972,7 +11998,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>169</v>
       </c>
@@ -11986,7 +12012,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>170</v>
       </c>
@@ -12000,7 +12026,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>171</v>
       </c>
@@ -12014,7 +12040,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>172</v>
       </c>
@@ -12028,7 +12054,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>173</v>
       </c>
@@ -12042,7 +12068,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>174</v>
       </c>
@@ -12056,7 +12082,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>175</v>
       </c>
@@ -12070,7 +12096,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>176</v>
       </c>
@@ -12084,7 +12110,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>177</v>
       </c>
@@ -12098,7 +12124,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>178</v>
       </c>
@@ -12112,7 +12138,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>179</v>
       </c>
@@ -12126,7 +12152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>180</v>
       </c>
@@ -12140,7 +12166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -12155,6 +12181,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D784">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Gerda"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/img_labeling_2nd_round/missing.xlsx
+++ b/data/img_labeling_2nd_round/missing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="449">
   <si>
     <t>images</t>
   </si>
@@ -1358,9 +1358,6 @@
   </si>
   <si>
     <t>Amelie</t>
-  </si>
-  <si>
-    <t>Gerda</t>
   </si>
   <si>
     <t>Renato</t>
@@ -1721,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1064"/>
+  <dimension ref="A1:D1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8323,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="B472" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="C472">
         <v>3</v>
       </c>
       <c r="D472" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8337,13 +8334,13 @@
         <v>1</v>
       </c>
       <c r="B473" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="C473">
         <v>3</v>
       </c>
       <c r="D473" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8351,13 +8348,13 @@
         <v>2</v>
       </c>
       <c r="B474" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="C474">
         <v>3</v>
       </c>
       <c r="D474" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8365,13 +8362,13 @@
         <v>3</v>
       </c>
       <c r="B475" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="C475">
         <v>3</v>
       </c>
       <c r="D475" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8379,13 +8376,13 @@
         <v>4</v>
       </c>
       <c r="B476" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C476">
         <v>3</v>
       </c>
       <c r="D476" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8393,13 +8390,13 @@
         <v>5</v>
       </c>
       <c r="B477" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C477">
         <v>3</v>
       </c>
       <c r="D477" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8407,13 +8404,13 @@
         <v>6</v>
       </c>
       <c r="B478" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C478">
         <v>3</v>
       </c>
       <c r="D478" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8421,13 +8418,13 @@
         <v>7</v>
       </c>
       <c r="B479" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C479">
         <v>3</v>
       </c>
       <c r="D479" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8435,13 +8432,13 @@
         <v>8</v>
       </c>
       <c r="B480" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C480">
         <v>3</v>
       </c>
       <c r="D480" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8449,13 +8446,13 @@
         <v>9</v>
       </c>
       <c r="B481" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C481">
         <v>3</v>
       </c>
       <c r="D481" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8463,13 +8460,13 @@
         <v>10</v>
       </c>
       <c r="B482" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C482">
         <v>3</v>
       </c>
       <c r="D482" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8477,13 +8474,13 @@
         <v>11</v>
       </c>
       <c r="B483" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C483">
         <v>3</v>
       </c>
       <c r="D483" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8491,13 +8488,13 @@
         <v>12</v>
       </c>
       <c r="B484" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C484">
         <v>3</v>
       </c>
       <c r="D484" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8505,13 +8502,13 @@
         <v>13</v>
       </c>
       <c r="B485" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C485">
         <v>3</v>
       </c>
       <c r="D485" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8519,13 +8516,13 @@
         <v>14</v>
       </c>
       <c r="B486" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C486">
         <v>3</v>
       </c>
       <c r="D486" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8533,13 +8530,13 @@
         <v>15</v>
       </c>
       <c r="B487" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C487">
         <v>3</v>
       </c>
       <c r="D487" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8547,13 +8544,13 @@
         <v>16</v>
       </c>
       <c r="B488" t="s">
-        <v>179</v>
+        <v>411</v>
       </c>
       <c r="C488">
         <v>3</v>
       </c>
       <c r="D488" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8561,13 +8558,13 @@
         <v>17</v>
       </c>
       <c r="B489" t="s">
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="C489">
         <v>3</v>
       </c>
       <c r="D489" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8575,13 +8572,13 @@
         <v>18</v>
       </c>
       <c r="B490" t="s">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="C490">
         <v>3</v>
       </c>
       <c r="D490" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8589,13 +8586,13 @@
         <v>19</v>
       </c>
       <c r="B491" t="s">
-        <v>73</v>
+        <v>414</v>
       </c>
       <c r="C491">
         <v>3</v>
       </c>
       <c r="D491" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8603,13 +8600,13 @@
         <v>20</v>
       </c>
       <c r="B492" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="C492">
         <v>3</v>
       </c>
       <c r="D492" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8617,13 +8614,13 @@
         <v>21</v>
       </c>
       <c r="B493" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C493">
         <v>3</v>
       </c>
       <c r="D493" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8631,13 +8628,13 @@
         <v>22</v>
       </c>
       <c r="B494" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C494">
         <v>3</v>
       </c>
       <c r="D494" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8645,13 +8642,13 @@
         <v>23</v>
       </c>
       <c r="B495" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C495">
         <v>3</v>
       </c>
       <c r="D495" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8659,13 +8656,13 @@
         <v>24</v>
       </c>
       <c r="B496" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C496">
         <v>3</v>
       </c>
       <c r="D496" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8673,13 +8670,13 @@
         <v>25</v>
       </c>
       <c r="B497" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C497">
         <v>3</v>
       </c>
       <c r="D497" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8687,13 +8684,13 @@
         <v>26</v>
       </c>
       <c r="B498" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="C498">
         <v>3</v>
       </c>
       <c r="D498" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8701,13 +8698,13 @@
         <v>27</v>
       </c>
       <c r="B499" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C499">
         <v>3</v>
       </c>
       <c r="D499" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8715,13 +8712,13 @@
         <v>28</v>
       </c>
       <c r="B500" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C500">
         <v>3</v>
       </c>
       <c r="D500" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8729,13 +8726,13 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C501">
         <v>3</v>
       </c>
       <c r="D501" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8743,13 +8740,13 @@
         <v>30</v>
       </c>
       <c r="B502" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C502">
         <v>3</v>
       </c>
       <c r="D502" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8757,13 +8754,13 @@
         <v>31</v>
       </c>
       <c r="B503" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C503">
         <v>3</v>
       </c>
       <c r="D503" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8771,13 +8768,13 @@
         <v>32</v>
       </c>
       <c r="B504" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C504">
         <v>3</v>
       </c>
       <c r="D504" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8785,13 +8782,13 @@
         <v>33</v>
       </c>
       <c r="B505" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C505">
         <v>3</v>
       </c>
       <c r="D505" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8799,13 +8796,13 @@
         <v>34</v>
       </c>
       <c r="B506" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C506">
         <v>3</v>
       </c>
       <c r="D506" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -8813,13 +8810,13 @@
         <v>35</v>
       </c>
       <c r="B507" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C507">
         <v>3</v>
       </c>
       <c r="D507" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -8827,13 +8824,13 @@
         <v>36</v>
       </c>
       <c r="B508" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="C508">
         <v>3</v>
       </c>
       <c r="D508" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -8841,13 +8838,13 @@
         <v>37</v>
       </c>
       <c r="B509" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="C509">
         <v>3</v>
       </c>
       <c r="D509" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8855,13 +8852,13 @@
         <v>38</v>
       </c>
       <c r="B510" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="C510">
         <v>3</v>
       </c>
       <c r="D510" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8869,13 +8866,13 @@
         <v>39</v>
       </c>
       <c r="B511" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="C511">
         <v>3</v>
       </c>
       <c r="D511" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8883,13 +8880,13 @@
         <v>40</v>
       </c>
       <c r="B512" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="C512">
         <v>3</v>
       </c>
       <c r="D512" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -8897,13 +8894,13 @@
         <v>41</v>
       </c>
       <c r="B513" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C513">
         <v>3</v>
       </c>
       <c r="D513" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -8911,13 +8908,13 @@
         <v>42</v>
       </c>
       <c r="B514" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C514">
         <v>3</v>
       </c>
       <c r="D514" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -8925,13 +8922,13 @@
         <v>43</v>
       </c>
       <c r="B515" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="C515">
         <v>3</v>
       </c>
       <c r="D515" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8939,13 +8936,13 @@
         <v>44</v>
       </c>
       <c r="B516" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C516">
         <v>3</v>
       </c>
       <c r="D516" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8953,13 +8950,13 @@
         <v>45</v>
       </c>
       <c r="B517" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="C517">
         <v>3</v>
       </c>
       <c r="D517" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -8967,13 +8964,13 @@
         <v>46</v>
       </c>
       <c r="B518" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="C518">
         <v>3</v>
       </c>
       <c r="D518" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -8981,13 +8978,13 @@
         <v>47</v>
       </c>
       <c r="B519" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="C519">
         <v>3</v>
       </c>
       <c r="D519" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8995,13 +8992,13 @@
         <v>48</v>
       </c>
       <c r="B520" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="C520">
         <v>3</v>
       </c>
       <c r="D520" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -9009,21 +9006,21 @@
         <v>49</v>
       </c>
       <c r="B521" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="C521">
         <v>3</v>
       </c>
       <c r="D521" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B522" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C522">
         <v>3</v>
@@ -9034,10 +9031,10 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B523" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C523">
         <v>3</v>
@@ -9048,10 +9045,10 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B524" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C524">
         <v>3</v>
@@ -9062,10 +9059,10 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B525" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C525">
         <v>3</v>
@@ -9076,10 +9073,10 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="1">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B526" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C526">
         <v>3</v>
@@ -9090,10 +9087,10 @@
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B527" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C527">
         <v>3</v>
@@ -9104,10 +9101,10 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B528" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C528">
         <v>3</v>
@@ -9118,10 +9115,10 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B529" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C529">
         <v>3</v>
@@ -9132,10 +9129,10 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="1">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B530" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C530">
         <v>3</v>
@@ -9146,10 +9143,10 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="1">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B531" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C531">
         <v>3</v>
@@ -9160,10 +9157,10 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B532" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C532">
         <v>3</v>
@@ -9174,10 +9171,10 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B533" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C533">
         <v>3</v>
@@ -9188,10 +9185,10 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B534" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C534">
         <v>3</v>
@@ -9202,10 +9199,10 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="1">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B535" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C535">
         <v>3</v>
@@ -9216,10 +9213,10 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="1">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B536" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C536">
         <v>3</v>
@@ -9230,10 +9227,10 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="1">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B537" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C537">
         <v>3</v>
@@ -9244,10 +9241,10 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="1">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B538" t="s">
-        <v>411</v>
+        <v>64</v>
       </c>
       <c r="C538">
         <v>3</v>
@@ -9258,10 +9255,10 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="1">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B539" t="s">
-        <v>412</v>
+        <v>65</v>
       </c>
       <c r="C539">
         <v>3</v>
@@ -9272,10 +9269,10 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="1">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B540" t="s">
-        <v>413</v>
+        <v>66</v>
       </c>
       <c r="C540">
         <v>3</v>
@@ -9286,10 +9283,10 @@
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="1">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B541" t="s">
-        <v>414</v>
+        <v>67</v>
       </c>
       <c r="C541">
         <v>3</v>
@@ -9300,10 +9297,10 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B542" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="C542">
         <v>3</v>
@@ -9314,10 +9311,10 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B543" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C543">
         <v>3</v>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B544" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C544">
         <v>3</v>
@@ -9342,10 +9339,10 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B545" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C545">
         <v>3</v>
@@ -9356,10 +9353,10 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B546" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C546">
         <v>3</v>
@@ -9370,10 +9367,10 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B547" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C547">
         <v>3</v>
@@ -9384,10 +9381,10 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="1">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B548" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C548">
         <v>3</v>
@@ -9398,10 +9395,10 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B549" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C549">
         <v>3</v>
@@ -9412,10 +9409,10 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="B550" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C550">
         <v>3</v>
@@ -9426,10 +9423,10 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="1">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B551" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C551">
         <v>3</v>
@@ -9440,10 +9437,10 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B552" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C552">
         <v>3</v>
@@ -9454,10 +9451,10 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="1">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B553" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C553">
         <v>3</v>
@@ -9468,10 +9465,10 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B554" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C554">
         <v>3</v>
@@ -9482,10 +9479,10 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="1">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B555" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C555">
         <v>3</v>
@@ -9496,10 +9493,10 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B556" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C556">
         <v>3</v>
@@ -9510,10 +9507,10 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B557" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C557">
         <v>3</v>
@@ -9524,10 +9521,10 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B558" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C558">
         <v>3</v>
@@ -9538,10 +9535,10 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="1">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B559" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C559">
         <v>3</v>
@@ -9552,10 +9549,10 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="1">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B560" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C560">
         <v>3</v>
@@ -9566,10 +9563,10 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="1">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B561" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C561">
         <v>3</v>
@@ -9580,10 +9577,10 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B562" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C562">
         <v>3</v>
@@ -9594,10 +9591,10 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="1">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B563" t="s">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="C563">
         <v>3</v>
@@ -9608,10 +9605,10 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="1">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B564" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="C564">
         <v>3</v>
@@ -9622,10 +9619,10 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B565" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="C565">
         <v>3</v>
@@ -9636,10 +9633,10 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="1">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B566" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="C566">
         <v>3</v>
@@ -9650,10 +9647,10 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="1">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B567" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="C567">
         <v>3</v>
@@ -9664,10 +9661,10 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="1">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B568" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C568">
         <v>3</v>
@@ -9678,10 +9675,10 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="1">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B569" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="C569">
         <v>3</v>
@@ -9692,10 +9689,10 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="1">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B570" t="s">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="C570">
         <v>3</v>
@@ -9706,10 +9703,10 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B571" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C571">
         <v>3</v>
@@ -9720,10 +9717,10 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B572" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
       <c r="C572">
         <v>3</v>
@@ -9734,10 +9731,10 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="1">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B573" t="s">
-        <v>49</v>
+        <v>436</v>
       </c>
       <c r="C573">
         <v>3</v>
@@ -9748,10 +9745,10 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B574" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="C574">
         <v>3</v>
@@ -9762,10 +9759,10 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="1">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B575" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C575">
         <v>3</v>
@@ -9776,10 +9773,10 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="1">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B576" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C576">
         <v>3</v>
@@ -9790,10 +9787,10 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="1">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B577" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C577">
         <v>3</v>
@@ -9804,10 +9801,10 @@
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="1">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B578" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C578">
         <v>3</v>
@@ -9818,10 +9815,10 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B579" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C579">
         <v>3</v>
@@ -9832,10 +9829,10 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="1">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B580" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C580">
         <v>3</v>
@@ -9846,10 +9843,10 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="1">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B581" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C581">
         <v>3</v>
@@ -9860,10 +9857,10 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B582" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C582">
         <v>3</v>
@@ -9874,10 +9871,10 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" s="1">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B583" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C583">
         <v>3</v>
@@ -9888,10 +9885,10 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" s="1">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B584" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C584">
         <v>3</v>
@@ -9902,10 +9899,10 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" s="1">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B585" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C585">
         <v>3</v>
@@ -9916,10 +9913,10 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="1">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B586" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C586">
         <v>3</v>
@@ -9930,10 +9927,10 @@
     </row>
     <row r="587" spans="1:4">
       <c r="A587" s="1">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B587" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C587">
         <v>3</v>
@@ -9944,10 +9941,10 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" s="1">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B588" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C588">
         <v>3</v>
@@ -9958,10 +9955,10 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="1">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B589" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C589">
         <v>3</v>
@@ -9972,10 +9969,10 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" s="1">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B590" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C590">
         <v>3</v>
@@ -9986,10 +9983,10 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" s="1">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B591" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C591">
         <v>3</v>
@@ -10000,10 +9997,10 @@
     </row>
     <row r="592" spans="1:4">
       <c r="A592" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B592" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C592">
         <v>3</v>
@@ -10014,10 +10011,10 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" s="1">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B593" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C593">
         <v>3</v>
@@ -10028,10 +10025,10 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="1">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B594" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C594">
         <v>3</v>
@@ -10042,10 +10039,10 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="1">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B595" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C595">
         <v>3</v>
@@ -10056,10 +10053,10 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" s="1">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B596" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C596">
         <v>3</v>
@@ -10070,10 +10067,10 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" s="1">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B597" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C597">
         <v>3</v>
@@ -10084,10 +10081,10 @@
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="1">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B598" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C598">
         <v>3</v>
@@ -10098,10 +10095,10 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="1">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B599" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C599">
         <v>3</v>
@@ -10112,10 +10109,10 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" s="1">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B600" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C600">
         <v>3</v>
@@ -10126,10 +10123,10 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" s="1">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B601" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C601">
         <v>3</v>
@@ -10140,10 +10137,10 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B602" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C602">
         <v>3</v>
@@ -10154,10 +10151,10 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="1">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B603" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C603">
         <v>3</v>
@@ -10168,10 +10165,10 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" s="1">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B604" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C604">
         <v>3</v>
@@ -10182,10 +10179,10 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B605" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C605">
         <v>3</v>
@@ -10196,10 +10193,10 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="1">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B606" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C606">
         <v>3</v>
@@ -10210,10 +10207,10 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="1">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B607" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C607">
         <v>3</v>
@@ -10224,10 +10221,10 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" s="1">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B608" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C608">
         <v>3</v>
@@ -10238,10 +10235,10 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" s="1">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B609" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C609">
         <v>3</v>
@@ -10252,10 +10249,10 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="1">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B610" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C610">
         <v>3</v>
@@ -10266,10 +10263,10 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" s="1">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B611" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C611">
         <v>3</v>
@@ -10280,10 +10277,10 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B612" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C612">
         <v>3</v>
@@ -10294,10 +10291,10 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="1">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B613" t="s">
-        <v>428</v>
+        <v>129</v>
       </c>
       <c r="C613">
         <v>3</v>
@@ -10308,10 +10305,10 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="1">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B614" t="s">
-        <v>429</v>
+        <v>130</v>
       </c>
       <c r="C614">
         <v>3</v>
@@ -10322,10 +10319,10 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" s="1">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B615" t="s">
-        <v>430</v>
+        <v>131</v>
       </c>
       <c r="C615">
         <v>3</v>
@@ -10336,10 +10333,10 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" s="1">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B616" t="s">
-        <v>431</v>
+        <v>132</v>
       </c>
       <c r="C616">
         <v>3</v>
@@ -10350,10 +10347,10 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" s="1">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B617" t="s">
-        <v>432</v>
+        <v>133</v>
       </c>
       <c r="C617">
         <v>3</v>
@@ -10364,10 +10361,10 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" s="1">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B618" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C618">
         <v>3</v>
@@ -10378,10 +10375,10 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="1">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B619" t="s">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="C619">
         <v>3</v>
@@ -10392,10 +10389,10 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" s="1">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B620" t="s">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="C620">
         <v>3</v>
@@ -10406,10 +10403,10 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" s="1">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B621" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C621">
         <v>3</v>
@@ -10420,10 +10417,10 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B622" t="s">
-        <v>435</v>
+        <v>138</v>
       </c>
       <c r="C622">
         <v>3</v>
@@ -10434,10 +10431,10 @@
     </row>
     <row r="623" spans="1:4">
       <c r="A623" s="1">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B623" t="s">
-        <v>436</v>
+        <v>139</v>
       </c>
       <c r="C623">
         <v>3</v>
@@ -10448,10 +10445,10 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="1">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B624" t="s">
-        <v>437</v>
+        <v>140</v>
       </c>
       <c r="C624">
         <v>3</v>
@@ -10462,10 +10459,10 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" s="1">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B625" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C625">
         <v>3</v>
@@ -10476,10 +10473,10 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="1">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B626" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C626">
         <v>3</v>
@@ -10490,10 +10487,10 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" s="1">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B627" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C627">
         <v>3</v>
@@ -10504,10 +10501,10 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="1">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B628" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C628">
         <v>3</v>
@@ -10518,10 +10515,10 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="1">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B629" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C629">
         <v>3</v>
@@ -10532,10 +10529,10 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" s="1">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B630" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C630">
         <v>3</v>
@@ -10546,10 +10543,10 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="1">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B631" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C631">
         <v>3</v>
@@ -10560,10 +10557,10 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" s="1">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B632" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C632">
         <v>3</v>
@@ -10574,10 +10571,10 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="1">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B633" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C633">
         <v>3</v>
@@ -10588,10 +10585,10 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="1">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B634" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C634">
         <v>3</v>
@@ -10602,10 +10599,10 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="1">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B635" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C635">
         <v>3</v>
@@ -10616,10 +10613,10 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="1">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B636" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C636">
         <v>3</v>
@@ -10630,10 +10627,10 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" s="1">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B637" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C637">
         <v>3</v>
@@ -10644,10 +10641,10 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="1">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B638" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="C638">
         <v>3</v>
@@ -10658,10 +10655,10 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="1">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B639" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="C639">
         <v>3</v>
@@ -10672,10 +10669,10 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" s="1">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B640" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C640">
         <v>3</v>
@@ -10686,10 +10683,10 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="1">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B641" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C641">
         <v>3</v>
@@ -10700,10 +10697,10 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="1">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="B642" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C642">
         <v>3</v>
@@ -10714,10 +10711,10 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="1">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B643" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="C643">
         <v>3</v>
@@ -10728,10 +10725,10 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="1">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B644" t="s">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="C644">
         <v>3</v>
@@ -10742,10 +10739,10 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="1">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B645" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="C645">
         <v>3</v>
@@ -10756,10 +10753,10 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="1">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B646" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C646">
         <v>3</v>
@@ -10770,10 +10767,10 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="1">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B647" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C647">
         <v>3</v>
@@ -10784,10 +10781,10 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="1">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B648" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="C648">
         <v>3</v>
@@ -10798,10 +10795,10 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="1">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B649" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C649">
         <v>3</v>
@@ -10812,10 +10809,10 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="1">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B650" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C650">
         <v>3</v>
@@ -10826,10 +10823,10 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B651" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C651">
         <v>3</v>
@@ -10840,10 +10837,10 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B652" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C652">
         <v>3</v>
@@ -10854,10 +10851,10 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="1">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B653" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C653">
         <v>3</v>
@@ -10868,10 +10865,10 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="1">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B654" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C654">
         <v>3</v>
@@ -10882,10 +10879,10 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="1">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B655" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C655">
         <v>3</v>
@@ -10896,10 +10893,10 @@
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="1">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B656" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C656">
         <v>3</v>
@@ -10910,10 +10907,10 @@
     </row>
     <row r="657" spans="1:4">
       <c r="A657" s="1">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B657" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C657">
         <v>3</v>
@@ -10924,10 +10921,10 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" s="1">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B658" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C658">
         <v>3</v>
@@ -10938,10 +10935,10 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="1">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B659" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C659">
         <v>3</v>
@@ -10952,10 +10949,10 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" s="1">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="B660" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C660">
         <v>3</v>
@@ -10966,10 +10963,10 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" s="1">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="B661" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="C661">
         <v>3</v>
@@ -10980,10 +10977,10 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" s="1">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B662" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C662">
         <v>3</v>
@@ -10994,10 +10991,10 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" s="1">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B663" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C663">
         <v>3</v>
@@ -11008,10 +11005,10 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B664" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C664">
         <v>3</v>
@@ -11022,10 +11019,10 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" s="1">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B665" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="C665">
         <v>3</v>
@@ -11036,10 +11033,10 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" s="1">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B666" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C666">
         <v>3</v>
@@ -11050,10 +11047,10 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" s="1">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B667" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="C667">
         <v>3</v>
@@ -11064,10 +11061,10 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" s="1">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B668" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C668">
         <v>3</v>
@@ -11078,10 +11075,10 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" s="1">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B669" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C669">
         <v>3</v>
@@ -11092,10 +11089,10 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" s="1">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="B670" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C670">
         <v>3</v>
@@ -11106,10 +11103,10 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="1">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="B671" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C671">
         <v>3</v>
@@ -11120,10 +11117,10 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B672" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="C672">
         <v>3</v>
@@ -11134,10 +11131,10 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" s="1">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B673" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="C673">
         <v>3</v>
@@ -11148,10 +11145,10 @@
     </row>
     <row r="674" spans="1:4">
       <c r="A674" s="1">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B674" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C674">
         <v>3</v>
@@ -11162,10 +11159,10 @@
     </row>
     <row r="675" spans="1:4">
       <c r="A675" s="1">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B675" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="C675">
         <v>3</v>
@@ -11176,10 +11173,10 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" s="1">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B676" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="C676">
         <v>3</v>
@@ -11190,10 +11187,10 @@
     </row>
     <row r="677" spans="1:4">
       <c r="A677" s="1">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B677" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="C677">
         <v>3</v>
@@ -11204,10 +11201,10 @@
     </row>
     <row r="678" spans="1:4">
       <c r="A678" s="1">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B678" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="C678">
         <v>3</v>
@@ -11218,10 +11215,10 @@
     </row>
     <row r="679" spans="1:4">
       <c r="A679" s="1">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B679" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C679">
         <v>3</v>
@@ -11232,10 +11229,10 @@
     </row>
     <row r="680" spans="1:4">
       <c r="A680" s="1">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B680" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C680">
         <v>3</v>
@@ -11246,10 +11243,10 @@
     </row>
     <row r="681" spans="1:4">
       <c r="A681" s="1">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B681" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C681">
         <v>3</v>
@@ -11260,10 +11257,10 @@
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B682" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C682">
         <v>3</v>
@@ -11274,10 +11271,10 @@
     </row>
     <row r="683" spans="1:4">
       <c r="A683" s="1">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B683" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C683">
         <v>3</v>
@@ -11288,10 +11285,10 @@
     </row>
     <row r="684" spans="1:4">
       <c r="A684" s="1">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B684" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="C684">
         <v>3</v>
@@ -11302,10 +11299,10 @@
     </row>
     <row r="685" spans="1:4">
       <c r="A685" s="1">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B685" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C685">
         <v>3</v>
@@ -11316,10 +11313,10 @@
     </row>
     <row r="686" spans="1:4">
       <c r="A686" s="1">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B686" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="C686">
         <v>3</v>
@@ -11330,10 +11327,10 @@
     </row>
     <row r="687" spans="1:4">
       <c r="A687" s="1">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B687" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C687">
         <v>3</v>
@@ -11344,10 +11341,10 @@
     </row>
     <row r="688" spans="1:4">
       <c r="A688" s="1">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B688" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C688">
         <v>3</v>
@@ -11358,10 +11355,10 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" s="1">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="B689" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C689">
         <v>3</v>
@@ -11372,10 +11369,10 @@
     </row>
     <row r="690" spans="1:4">
       <c r="A690" s="1">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="B690" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="C690">
         <v>3</v>
@@ -11386,10 +11383,10 @@
     </row>
     <row r="691" spans="1:4">
       <c r="A691" s="1">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="B691" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="C691">
         <v>3</v>
@@ -11400,10 +11397,10 @@
     </row>
     <row r="692" spans="1:4">
       <c r="A692" s="1">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="B692" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="C692">
         <v>3</v>
@@ -11414,10 +11411,10 @@
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="1">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="B693" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C693">
         <v>3</v>
@@ -11428,10 +11425,10 @@
     </row>
     <row r="694" spans="1:4">
       <c r="A694" s="1">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="B694" t="s">
-        <v>426</v>
+        <v>208</v>
       </c>
       <c r="C694">
         <v>3</v>
@@ -11442,10 +11439,10 @@
     </row>
     <row r="695" spans="1:4">
       <c r="A695" s="1">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B695" t="s">
-        <v>427</v>
+        <v>209</v>
       </c>
       <c r="C695">
         <v>3</v>
@@ -11456,10 +11453,10 @@
     </row>
     <row r="696" spans="1:4">
       <c r="A696" s="1">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B696" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C696">
         <v>3</v>
@@ -11470,10 +11467,10 @@
     </row>
     <row r="697" spans="1:4">
       <c r="A697" s="1">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B697" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="C697">
         <v>3</v>
@@ -11484,10 +11481,10 @@
     </row>
     <row r="698" spans="1:4">
       <c r="A698" s="1">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="B698" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C698">
         <v>3</v>
@@ -11498,10 +11495,10 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" s="1">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B699" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="C699">
         <v>3</v>
@@ -11512,10 +11509,10 @@
     </row>
     <row r="700" spans="1:4">
       <c r="A700" s="1">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B700" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C700">
         <v>3</v>
@@ -11526,10 +11523,10 @@
     </row>
     <row r="701" spans="1:4">
       <c r="A701" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B701" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C701">
         <v>3</v>
@@ -11540,10 +11537,10 @@
     </row>
     <row r="702" spans="1:4">
       <c r="A702" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B702" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C702">
         <v>3</v>
@@ -11554,10 +11551,10 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" s="1">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B703" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C703">
         <v>3</v>
@@ -11568,10 +11565,10 @@
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="1">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B704" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C704">
         <v>3</v>
@@ -11582,10 +11579,10 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="1">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B705" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C705">
         <v>3</v>
@@ -11596,10 +11593,10 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="1">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="B706" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C706">
         <v>3</v>
@@ -11610,10 +11607,10 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="1">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B707" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C707">
         <v>3</v>
@@ -11624,10 +11621,10 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="1">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B708" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="C708">
         <v>3</v>
@@ -11638,10 +11635,10 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="1">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B709" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="C709">
         <v>3</v>
@@ -11652,10 +11649,10 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="1">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="B710" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C710">
         <v>3</v>
@@ -11666,10 +11663,10 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="1">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B711" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="C711">
         <v>3</v>
@@ -11680,10 +11677,10 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="1">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="B712" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C712">
         <v>3</v>
@@ -11694,10 +11691,10 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="1">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B713" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="C713">
         <v>3</v>
@@ -11708,10 +11705,10 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="1">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B714" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="C714">
         <v>3</v>
@@ -11722,10 +11719,10 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="1">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="B715" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C715">
         <v>3</v>
@@ -11736,10 +11733,10 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="1">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B716" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C716">
         <v>3</v>
@@ -11750,10 +11747,10 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="1">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B717" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="C717">
         <v>3</v>
@@ -11764,10 +11761,10 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B718" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="C718">
         <v>3</v>
@@ -11778,10 +11775,10 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="1">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B719" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C719">
         <v>3</v>
@@ -11792,10 +11789,10 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="1">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="B720" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="C720">
         <v>3</v>
@@ -11806,10 +11803,10 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="B721" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="C721">
         <v>3</v>
@@ -11820,10 +11817,10 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B722" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="C722">
         <v>3</v>
@@ -11834,10 +11831,10 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="1">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B723" t="s">
-        <v>187</v>
+        <v>440</v>
       </c>
       <c r="C723">
         <v>3</v>
@@ -11848,10 +11845,10 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" s="1">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B724" t="s">
-        <v>188</v>
+        <v>441</v>
       </c>
       <c r="C724">
         <v>3</v>
@@ -11862,10 +11859,10 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" s="1">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B725" t="s">
-        <v>189</v>
+        <v>442</v>
       </c>
       <c r="C725">
         <v>3</v>
@@ -11876,10 +11873,10 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="1">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="B726" t="s">
-        <v>190</v>
+        <v>443</v>
       </c>
       <c r="C726">
         <v>3</v>
@@ -11890,10 +11887,10 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="1">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="B727" t="s">
-        <v>191</v>
+        <v>444</v>
       </c>
       <c r="C727">
         <v>3</v>
@@ -11904,10 +11901,10 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" s="1">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="B728" t="s">
-        <v>192</v>
+        <v>395</v>
       </c>
       <c r="C728">
         <v>3</v>
@@ -11918,10 +11915,10 @@
     </row>
     <row r="729" spans="1:4">
       <c r="A729" s="1">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B729" t="s">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="C729">
         <v>3</v>
@@ -11932,10 +11929,10 @@
     </row>
     <row r="730" spans="1:4">
       <c r="A730" s="1">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B730" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="C730">
         <v>3</v>
@@ -11946,10 +11943,10 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" s="1">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B731" t="s">
-        <v>195</v>
+        <v>398</v>
       </c>
       <c r="C731">
         <v>3</v>
@@ -11960,10 +11957,10 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" s="1">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B732" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="C732">
         <v>3</v>
@@ -11974,10 +11971,10 @@
     </row>
     <row r="733" spans="1:4">
       <c r="A733" s="1">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B733" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="C733">
         <v>3</v>
@@ -11988,10 +11985,10 @@
     </row>
     <row r="734" spans="1:4">
       <c r="A734" s="1">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B734" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="C734">
         <v>3</v>
@@ -12002,10 +11999,10 @@
     </row>
     <row r="735" spans="1:4">
       <c r="A735" s="1">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B735" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="C735">
         <v>3</v>
@@ -12016,10 +12013,10 @@
     </row>
     <row r="736" spans="1:4">
       <c r="A736" s="1">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B736" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C736">
         <v>3</v>
@@ -12030,10 +12027,10 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" s="1">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B737" t="s">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="C737">
         <v>3</v>
@@ -12044,10 +12041,10 @@
     </row>
     <row r="738" spans="1:4">
       <c r="A738" s="1">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B738" t="s">
-        <v>202</v>
+        <v>405</v>
       </c>
       <c r="C738">
         <v>3</v>
@@ -12058,10 +12055,10 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="1">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="B739" t="s">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="C739">
         <v>3</v>
@@ -12072,10 +12069,10 @@
     </row>
     <row r="740" spans="1:4">
       <c r="A740" s="1">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B740" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="C740">
         <v>3</v>
@@ -12086,10 +12083,10 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" s="1">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B741" t="s">
-        <v>205</v>
+        <v>408</v>
       </c>
       <c r="C741">
         <v>3</v>
@@ -12100,10 +12097,10 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" s="1">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="B742" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="C742">
         <v>3</v>
@@ -12114,10 +12111,10 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" s="1">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="B743" t="s">
-        <v>207</v>
+        <v>410</v>
       </c>
       <c r="C743">
         <v>3</v>
@@ -12128,10 +12125,10 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" s="1">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="B744" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="C744">
         <v>3</v>
@@ -12142,10 +12139,10 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" s="1">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="B745" t="s">
-        <v>209</v>
+        <v>417</v>
       </c>
       <c r="C745">
         <v>3</v>
@@ -12156,10 +12153,10 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" s="1">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B746" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="C746">
         <v>3</v>
@@ -12170,10 +12167,10 @@
     </row>
     <row r="747" spans="1:4">
       <c r="A747" s="1">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B747" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="C747">
         <v>3</v>
@@ -12184,10 +12181,10 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" s="1">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="B748" t="s">
-        <v>212</v>
+        <v>420</v>
       </c>
       <c r="C748">
         <v>3</v>
@@ -12198,10 +12195,10 @@
     </row>
     <row r="749" spans="1:4">
       <c r="A749" s="1">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="B749" t="s">
-        <v>213</v>
+        <v>421</v>
       </c>
       <c r="C749">
         <v>3</v>
@@ -12212,10 +12209,10 @@
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="1">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="B750" t="s">
-        <v>214</v>
+        <v>422</v>
       </c>
       <c r="C750">
         <v>3</v>
@@ -12226,10 +12223,10 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="B751" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="C751">
         <v>3</v>
@@ -12240,10 +12237,10 @@
     </row>
     <row r="752" spans="1:4">
       <c r="A752" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B752" t="s">
-        <v>216</v>
+        <v>424</v>
       </c>
       <c r="C752">
         <v>3</v>
@@ -12254,10 +12251,10 @@
     </row>
     <row r="753" spans="1:4">
       <c r="A753" s="1">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="B753" t="s">
-        <v>217</v>
+        <v>425</v>
       </c>
       <c r="C753">
         <v>3</v>
@@ -12268,10 +12265,10 @@
     </row>
     <row r="754" spans="1:4">
       <c r="A754" s="1">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="B754" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C754">
         <v>3</v>
@@ -12282,10 +12279,10 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" s="1">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="B755" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C755">
         <v>3</v>
@@ -12296,10 +12293,10 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" s="1">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B756" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C756">
         <v>3</v>
@@ -12310,10 +12307,10 @@
     </row>
     <row r="757" spans="1:4">
       <c r="A757" s="1">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B757" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C757">
         <v>3</v>
@@ -12324,10 +12321,10 @@
     </row>
     <row r="758" spans="1:4">
       <c r="A758" s="1">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="B758" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C758">
         <v>3</v>
@@ -12338,10 +12335,10 @@
     </row>
     <row r="759" spans="1:4">
       <c r="A759" s="1">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B759" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C759">
         <v>3</v>
@@ -12352,10 +12349,10 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="1">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="B760" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C760">
         <v>3</v>
@@ -12366,10 +12363,10 @@
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="1">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="B761" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C761">
         <v>3</v>
@@ -12380,10 +12377,10 @@
     </row>
     <row r="762" spans="1:4">
       <c r="A762" s="1">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="B762" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C762">
         <v>3</v>
@@ -12394,10 +12391,10 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" s="1">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B763" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C763">
         <v>3</v>
@@ -12408,10 +12405,10 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" s="1">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="B764" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C764">
         <v>3</v>
@@ -12422,10 +12419,10 @@
     </row>
     <row r="765" spans="1:4">
       <c r="A765" s="1">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="B765" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C765">
         <v>3</v>
@@ -12436,10 +12433,10 @@
     </row>
     <row r="766" spans="1:4">
       <c r="A766" s="1">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B766" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C766">
         <v>3</v>
@@ -12450,10 +12447,10 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" s="1">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="B767" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C767">
         <v>3</v>
@@ -12464,10 +12461,10 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" s="1">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="B768" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C768">
         <v>3</v>
@@ -12478,10 +12475,10 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" s="1">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B769" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C769">
         <v>3</v>
@@ -12492,10 +12489,10 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" s="1">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="B770" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C770">
         <v>3</v>
@@ -12506,10 +12503,10 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="B771" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="C771">
         <v>3</v>
@@ -12520,10 +12517,10 @@
     </row>
     <row r="772" spans="1:4">
       <c r="A772" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B772" t="s">
-        <v>439</v>
+        <v>253</v>
       </c>
       <c r="C772">
         <v>3</v>
@@ -12534,10 +12531,10 @@
     </row>
     <row r="773" spans="1:4">
       <c r="A773" s="1">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="B773" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="C773">
         <v>3</v>
@@ -12548,10 +12545,10 @@
     </row>
     <row r="774" spans="1:4">
       <c r="A774" s="1">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="B774" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="C774">
         <v>3</v>
@@ -12562,10 +12559,10 @@
     </row>
     <row r="775" spans="1:4">
       <c r="A775" s="1">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="B775" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
       <c r="C775">
         <v>3</v>
@@ -12576,10 +12573,10 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" s="1">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="B776" t="s">
-        <v>443</v>
+        <v>257</v>
       </c>
       <c r="C776">
         <v>3</v>
@@ -12590,10 +12587,10 @@
     </row>
     <row r="777" spans="1:4">
       <c r="A777" s="1">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="B777" t="s">
-        <v>444</v>
+        <v>258</v>
       </c>
       <c r="C777">
         <v>3</v>
@@ -12604,10 +12601,10 @@
     </row>
     <row r="778" spans="1:4">
       <c r="A778" s="1">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="B778" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="C778">
         <v>3</v>
@@ -12618,10 +12615,10 @@
     </row>
     <row r="779" spans="1:4">
       <c r="A779" s="1">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="B779" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
       <c r="C779">
         <v>3</v>
@@ -12632,10 +12629,10 @@
     </row>
     <row r="780" spans="1:4">
       <c r="A780" s="1">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B780" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="C780">
         <v>3</v>
@@ -12646,10 +12643,10 @@
     </row>
     <row r="781" spans="1:4">
       <c r="A781" s="1">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="B781" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="C781">
         <v>3</v>
@@ -12660,10 +12657,10 @@
     </row>
     <row r="782" spans="1:4">
       <c r="A782" s="1">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="B782" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="C782">
         <v>3</v>
@@ -12674,10 +12671,10 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" s="1">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="B783" t="s">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="C783">
         <v>3</v>
@@ -12688,10 +12685,10 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" s="1">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="B784" t="s">
-        <v>401</v>
+        <v>265</v>
       </c>
       <c r="C784">
         <v>3</v>
@@ -12702,10 +12699,10 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="B785" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="C785">
         <v>3</v>
@@ -12716,10 +12713,10 @@
     </row>
     <row r="786" spans="1:4">
       <c r="A786" s="1">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="B786" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="C786">
         <v>3</v>
@@ -12730,10 +12727,10 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" s="1">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="B787" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="C787">
         <v>3</v>
@@ -12744,10 +12741,10 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" s="1">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="B788" t="s">
-        <v>405</v>
+        <v>269</v>
       </c>
       <c r="C788">
         <v>3</v>
@@ -12758,10 +12755,10 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" s="1">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="B789" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="C789">
         <v>3</v>
@@ -12772,10 +12769,10 @@
     </row>
     <row r="790" spans="1:4">
       <c r="A790" s="1">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="B790" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="C790">
         <v>3</v>
@@ -12786,10 +12783,10 @@
     </row>
     <row r="791" spans="1:4">
       <c r="A791" s="1">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="B791" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="C791">
         <v>3</v>
@@ -12800,10 +12797,10 @@
     </row>
     <row r="792" spans="1:4">
       <c r="A792" s="1">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="B792" t="s">
-        <v>409</v>
+        <v>273</v>
       </c>
       <c r="C792">
         <v>3</v>
@@ -12814,10 +12811,10 @@
     </row>
     <row r="793" spans="1:4">
       <c r="A793" s="1">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="B793" t="s">
-        <v>410</v>
+        <v>274</v>
       </c>
       <c r="C793">
         <v>3</v>
@@ -12828,10 +12825,10 @@
     </row>
     <row r="794" spans="1:4">
       <c r="A794" s="1">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="B794" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="C794">
         <v>3</v>
@@ -12842,10 +12839,10 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" s="1">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="B795" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="C795">
         <v>3</v>
@@ -12856,10 +12853,10 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" s="1">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="B796" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="C796">
         <v>3</v>
@@ -12870,10 +12867,10 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" s="1">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="B797" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="C797">
         <v>3</v>
@@ -12884,10 +12881,10 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" s="1">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="B798" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="C798">
         <v>3</v>
@@ -12898,10 +12895,10 @@
     </row>
     <row r="799" spans="1:4">
       <c r="A799" s="1">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B799" t="s">
-        <v>421</v>
+        <v>280</v>
       </c>
       <c r="C799">
         <v>3</v>
@@ -12912,10 +12909,10 @@
     </row>
     <row r="800" spans="1:4">
       <c r="A800" s="1">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="B800" t="s">
-        <v>422</v>
+        <v>281</v>
       </c>
       <c r="C800">
         <v>3</v>
@@ -12926,10 +12923,10 @@
     </row>
     <row r="801" spans="1:4">
       <c r="A801" s="1">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="B801" t="s">
-        <v>423</v>
+        <v>282</v>
       </c>
       <c r="C801">
         <v>3</v>
@@ -12940,10 +12937,10 @@
     </row>
     <row r="802" spans="1:4">
       <c r="A802" s="1">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="B802" t="s">
-        <v>424</v>
+        <v>283</v>
       </c>
       <c r="C802">
         <v>3</v>
@@ -12954,10 +12951,10 @@
     </row>
     <row r="803" spans="1:4">
       <c r="A803" s="1">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="B803" t="s">
-        <v>425</v>
+        <v>284</v>
       </c>
       <c r="C803">
         <v>3</v>
@@ -12968,10 +12965,10 @@
     </row>
     <row r="804" spans="1:4">
       <c r="A804" s="1">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="B804" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C804">
         <v>3</v>
@@ -12982,10 +12979,10 @@
     </row>
     <row r="805" spans="1:4">
       <c r="A805" s="1">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B805" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C805">
         <v>3</v>
@@ -12996,10 +12993,10 @@
     </row>
     <row r="806" spans="1:4">
       <c r="A806" s="1">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="B806" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C806">
         <v>3</v>
@@ -13010,10 +13007,10 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" s="1">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="B807" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C807">
         <v>3</v>
@@ -13024,10 +13021,10 @@
     </row>
     <row r="808" spans="1:4">
       <c r="A808" s="1">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="B808" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="C808">
         <v>3</v>
@@ -13038,10 +13035,10 @@
     </row>
     <row r="809" spans="1:4">
       <c r="A809" s="1">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="B809" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C809">
         <v>3</v>
@@ -13052,10 +13049,10 @@
     </row>
     <row r="810" spans="1:4">
       <c r="A810" s="1">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="B810" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="C810">
         <v>3</v>
@@ -13066,10 +13063,10 @@
     </row>
     <row r="811" spans="1:4">
       <c r="A811" s="1">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="B811" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C811">
         <v>3</v>
@@ -13080,10 +13077,10 @@
     </row>
     <row r="812" spans="1:4">
       <c r="A812" s="1">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="B812" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="C812">
         <v>3</v>
@@ -13094,10 +13091,10 @@
     </row>
     <row r="813" spans="1:4">
       <c r="A813" s="1">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="B813" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C813">
         <v>3</v>
@@ -13108,10 +13105,10 @@
     </row>
     <row r="814" spans="1:4">
       <c r="A814" s="1">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="B814" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C814">
         <v>3</v>
@@ -13122,10 +13119,10 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="B815" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C815">
         <v>3</v>
@@ -13136,10 +13133,10 @@
     </row>
     <row r="816" spans="1:4">
       <c r="A816" s="1">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="B816" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="C816">
         <v>3</v>
@@ -13150,10 +13147,10 @@
     </row>
     <row r="817" spans="1:4">
       <c r="A817" s="1">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B817" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="C817">
         <v>3</v>
@@ -13164,10 +13161,10 @@
     </row>
     <row r="818" spans="1:4">
       <c r="A818" s="1">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="B818" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="C818">
         <v>3</v>
@@ -13178,10 +13175,10 @@
     </row>
     <row r="819" spans="1:4">
       <c r="A819" s="1">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B819" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C819">
         <v>3</v>
@@ -13192,10 +13189,10 @@
     </row>
     <row r="820" spans="1:4">
       <c r="A820" s="1">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="B820" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="C820">
         <v>3</v>
@@ -13206,10 +13203,10 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="B821" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C821">
         <v>3</v>
@@ -13220,10 +13217,10 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B822" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="C822">
         <v>3</v>
@@ -13234,10 +13231,10 @@
     </row>
     <row r="823" spans="1:4">
       <c r="A823" s="1">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="B823" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="C823">
         <v>3</v>
@@ -13248,10 +13245,10 @@
     </row>
     <row r="824" spans="1:4">
       <c r="A824" s="1">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="B824" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="C824">
         <v>3</v>
@@ -13262,10 +13259,10 @@
     </row>
     <row r="825" spans="1:4">
       <c r="A825" s="1">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="B825" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C825">
         <v>3</v>
@@ -13276,10 +13273,10 @@
     </row>
     <row r="826" spans="1:4">
       <c r="A826" s="1">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="B826" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="C826">
         <v>3</v>
@@ -13290,10 +13287,10 @@
     </row>
     <row r="827" spans="1:4">
       <c r="A827" s="1">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="B827" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="C827">
         <v>3</v>
@@ -13304,10 +13301,10 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="1">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="B828" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C828">
         <v>3</v>
@@ -13318,10 +13315,10 @@
     </row>
     <row r="829" spans="1:4">
       <c r="A829" s="1">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="B829" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C829">
         <v>3</v>
@@ -13332,10 +13329,10 @@
     </row>
     <row r="830" spans="1:4">
       <c r="A830" s="1">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="B830" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C830">
         <v>3</v>
@@ -13346,10 +13343,10 @@
     </row>
     <row r="831" spans="1:4">
       <c r="A831" s="1">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B831" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C831">
         <v>3</v>
@@ -13360,10 +13357,10 @@
     </row>
     <row r="832" spans="1:4">
       <c r="A832" s="1">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B832" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="C832">
         <v>3</v>
@@ -13374,10 +13371,10 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="1">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B833" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C833">
         <v>3</v>
@@ -13388,10 +13385,10 @@
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="1">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B834" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C834">
         <v>3</v>
@@ -13402,10 +13399,10 @@
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="1">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="B835" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="C835">
         <v>3</v>
@@ -13416,10 +13413,10 @@
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="1">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="B836" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C836">
         <v>3</v>
@@ -13430,10 +13427,10 @@
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="1">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="B837" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C837">
         <v>3</v>
@@ -13444,10 +13441,10 @@
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="1">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="B838" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="C838">
         <v>3</v>
@@ -13458,10 +13455,10 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="1">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="B839" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C839">
         <v>3</v>
@@ -13472,10 +13469,10 @@
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="1">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="B840" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="C840">
         <v>3</v>
@@ -13486,10 +13483,10 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="1">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B841" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C841">
         <v>3</v>
@@ -13500,10 +13497,10 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="1">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="B842" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C842">
         <v>3</v>
@@ -13514,10 +13511,10 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="1">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B843" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C843">
         <v>3</v>
@@ -13528,10 +13525,10 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="1">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="B844" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="C844">
         <v>3</v>
@@ -13542,10 +13539,10 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="1">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="B845" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C845">
         <v>3</v>
@@ -13556,10 +13553,10 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="1">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B846" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C846">
         <v>3</v>
@@ -13570,10 +13567,10 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="1">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="B847" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="C847">
         <v>3</v>
@@ -13584,10 +13581,10 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="1">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="B848" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C848">
         <v>3</v>
@@ -13598,10 +13595,10 @@
     </row>
     <row r="849" spans="1:4">
       <c r="A849" s="1">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="B849" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C849">
         <v>3</v>
@@ -13612,10 +13609,10 @@
     </row>
     <row r="850" spans="1:4">
       <c r="A850" s="1">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="B850" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C850">
         <v>3</v>
@@ -13626,10 +13623,10 @@
     </row>
     <row r="851" spans="1:4">
       <c r="A851" s="1">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="B851" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C851">
         <v>3</v>
@@ -13640,10 +13637,10 @@
     </row>
     <row r="852" spans="1:4">
       <c r="A852" s="1">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="B852" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="C852">
         <v>3</v>
@@ -13654,10 +13651,10 @@
     </row>
     <row r="853" spans="1:4">
       <c r="A853" s="1">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="B853" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C853">
         <v>3</v>
@@ -13668,10 +13665,10 @@
     </row>
     <row r="854" spans="1:4">
       <c r="A854" s="1">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="B854" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="C854">
         <v>3</v>
@@ -13682,10 +13679,10 @@
     </row>
     <row r="855" spans="1:4">
       <c r="A855" s="1">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="B855" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="C855">
         <v>3</v>
@@ -13696,10 +13693,10 @@
     </row>
     <row r="856" spans="1:4">
       <c r="A856" s="1">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B856" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="C856">
         <v>3</v>
@@ -13710,10 +13707,10 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" s="1">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="B857" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C857">
         <v>3</v>
@@ -13724,10 +13721,10 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="1">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="B858" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="C858">
         <v>3</v>
@@ -13738,10 +13735,10 @@
     </row>
     <row r="859" spans="1:4">
       <c r="A859" s="1">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="B859" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C859">
         <v>3</v>
@@ -13752,10 +13749,10 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" s="1">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="B860" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C860">
         <v>3</v>
@@ -13766,10 +13763,10 @@
     </row>
     <row r="861" spans="1:4">
       <c r="A861" s="1">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="B861" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="C861">
         <v>3</v>
@@ -13780,10 +13777,10 @@
     </row>
     <row r="862" spans="1:4">
       <c r="A862" s="1">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B862" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="C862">
         <v>3</v>
@@ -13794,10 +13791,10 @@
     </row>
     <row r="863" spans="1:4">
       <c r="A863" s="1">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="B863" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="C863">
         <v>3</v>
@@ -13808,10 +13805,10 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" s="1">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="B864" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="C864">
         <v>3</v>
@@ -13822,10 +13819,10 @@
     </row>
     <row r="865" spans="1:4">
       <c r="A865" s="1">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="B865" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="C865">
         <v>3</v>
@@ -13836,10 +13833,10 @@
     </row>
     <row r="866" spans="1:4">
       <c r="A866" s="1">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="B866" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="C866">
         <v>3</v>
@@ -13850,10 +13847,10 @@
     </row>
     <row r="867" spans="1:4">
       <c r="A867" s="1">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="B867" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C867">
         <v>3</v>
@@ -13864,10 +13861,10 @@
     </row>
     <row r="868" spans="1:4">
       <c r="A868" s="1">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B868" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="C868">
         <v>3</v>
@@ -13878,10 +13875,10 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="B869" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C869">
         <v>3</v>
@@ -13892,10 +13889,10 @@
     </row>
     <row r="870" spans="1:4">
       <c r="A870" s="1">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B870" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="C870">
         <v>3</v>
@@ -13906,10 +13903,10 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="1">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="B871" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="C871">
         <v>3</v>
@@ -13920,10 +13917,10 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B872" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="C872">
         <v>3</v>
@@ -13934,10 +13931,10 @@
     </row>
     <row r="873" spans="1:4">
       <c r="A873" s="1">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="B873" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="C873">
         <v>3</v>
@@ -13948,10 +13945,10 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" s="1">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B874" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C874">
         <v>3</v>
@@ -13962,10 +13959,10 @@
     </row>
     <row r="875" spans="1:4">
       <c r="A875" s="1">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="B875" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="C875">
         <v>3</v>
@@ -13976,10 +13973,10 @@
     </row>
     <row r="876" spans="1:4">
       <c r="A876" s="1">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B876" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C876">
         <v>3</v>
@@ -13990,10 +13987,10 @@
     </row>
     <row r="877" spans="1:4">
       <c r="A877" s="1">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B877" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="C877">
         <v>3</v>
@@ -14004,10 +14001,10 @@
     </row>
     <row r="878" spans="1:4">
       <c r="A878" s="1">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B878" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="C878">
         <v>3</v>
@@ -14018,10 +14015,10 @@
     </row>
     <row r="879" spans="1:4">
       <c r="A879" s="1">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="B879" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="C879">
         <v>3</v>
@@ -14032,10 +14029,10 @@
     </row>
     <row r="880" spans="1:4">
       <c r="A880" s="1">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="B880" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="C880">
         <v>3</v>
@@ -14046,10 +14043,10 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B881" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="C881">
         <v>3</v>
@@ -14060,10 +14057,10 @@
     </row>
     <row r="882" spans="1:4">
       <c r="A882" s="1">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B882" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C882">
         <v>3</v>
@@ -14074,10 +14071,10 @@
     </row>
     <row r="883" spans="1:4">
       <c r="A883" s="1">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="B883" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="C883">
         <v>3</v>
@@ -14088,10 +14085,10 @@
     </row>
     <row r="884" spans="1:4">
       <c r="A884" s="1">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B884" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="C884">
         <v>3</v>
@@ -14102,10 +14099,10 @@
     </row>
     <row r="885" spans="1:4">
       <c r="A885" s="1">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="B885" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="C885">
         <v>3</v>
@@ -14116,10 +14113,10 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="1">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="B886" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="C886">
         <v>3</v>
@@ -14130,10 +14127,10 @@
     </row>
     <row r="887" spans="1:4">
       <c r="A887" s="1">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B887" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="C887">
         <v>3</v>
@@ -14144,10 +14141,10 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" s="1">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B888" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="C888">
         <v>3</v>
@@ -14158,10 +14155,10 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="B889" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C889">
         <v>3</v>
@@ -14172,10 +14169,10 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" s="1">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B890" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="C890">
         <v>3</v>
@@ -14186,10 +14183,10 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" s="1">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="B891" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="C891">
         <v>3</v>
@@ -14200,10 +14197,10 @@
     </row>
     <row r="892" spans="1:4">
       <c r="A892" s="1">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B892" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="C892">
         <v>3</v>
@@ -14214,10 +14211,10 @@
     </row>
     <row r="893" spans="1:4">
       <c r="A893" s="1">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="B893" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="C893">
         <v>3</v>
@@ -14228,10 +14225,10 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" s="1">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="B894" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="C894">
         <v>3</v>
@@ -14242,10 +14239,10 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" s="1">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="B895" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="C895">
         <v>3</v>
@@ -14256,10 +14253,10 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="B896" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="C896">
         <v>3</v>
@@ -14270,10 +14267,10 @@
     </row>
     <row r="897" spans="1:4">
       <c r="A897" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B897" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="C897">
         <v>3</v>
@@ -14284,10 +14281,10 @@
     </row>
     <row r="898" spans="1:4">
       <c r="A898" s="1">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B898" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="C898">
         <v>3</v>
@@ -14298,10 +14295,10 @@
     </row>
     <row r="899" spans="1:4">
       <c r="A899" s="1">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="B899" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="C899">
         <v>3</v>
@@ -14312,10 +14309,10 @@
     </row>
     <row r="900" spans="1:4">
       <c r="A900" s="1">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B900" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="C900">
         <v>3</v>
@@ -14326,10 +14323,10 @@
     </row>
     <row r="901" spans="1:4">
       <c r="A901" s="1">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="B901" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="C901">
         <v>3</v>
@@ -14340,10 +14337,10 @@
     </row>
     <row r="902" spans="1:4">
       <c r="A902" s="1">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B902" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="C902">
         <v>3</v>
@@ -14354,10 +14351,10 @@
     </row>
     <row r="903" spans="1:4">
       <c r="A903" s="1">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B903" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C903">
         <v>3</v>
@@ -14368,10 +14365,10 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" s="1">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B904" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="C904">
         <v>3</v>
@@ -14382,10 +14379,10 @@
     </row>
     <row r="905" spans="1:4">
       <c r="A905" s="1">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B905" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="C905">
         <v>3</v>
@@ -14396,10 +14393,10 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="1">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B906" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="C906">
         <v>3</v>
@@ -14410,10 +14407,10 @@
     </row>
     <row r="907" spans="1:4">
       <c r="A907" s="1">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="B907" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C907">
         <v>3</v>
@@ -14424,10 +14421,10 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" s="1">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="B908" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="C908">
         <v>3</v>
@@ -14438,10 +14435,10 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" s="1">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="B909" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="C909">
         <v>3</v>
@@ -14452,10 +14449,10 @@
     </row>
     <row r="910" spans="1:4">
       <c r="A910" s="1">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="B910" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="C910">
         <v>3</v>
@@ -14466,10 +14463,10 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" s="1">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="B911" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="C911">
         <v>3</v>
@@ -14480,10 +14477,10 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" s="1">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="B912" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="C912">
         <v>3</v>
@@ -14494,10 +14491,10 @@
     </row>
     <row r="913" spans="1:4">
       <c r="A913" s="1">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="B913" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="C913">
         <v>3</v>
@@ -14508,702 +14505,702 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" s="1">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="B914" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="C914">
         <v>3</v>
       </c>
       <c r="D914" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" s="1">
-        <v>393</v>
+        <v>1</v>
       </c>
       <c r="B915" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="C915">
         <v>3</v>
       </c>
       <c r="D915" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="916" spans="1:4">
       <c r="A916" s="1">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="B916" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="C916">
         <v>3</v>
       </c>
       <c r="D916" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="917" spans="1:4">
       <c r="A917" s="1">
-        <v>395</v>
+        <v>3</v>
       </c>
       <c r="B917" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="C917">
         <v>3</v>
       </c>
       <c r="D917" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" s="1">
-        <v>396</v>
+        <v>4</v>
       </c>
       <c r="B918" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="C918">
         <v>3</v>
       </c>
       <c r="D918" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="919" spans="1:4">
       <c r="A919" s="1">
-        <v>397</v>
+        <v>5</v>
       </c>
       <c r="B919" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C919">
         <v>3</v>
       </c>
       <c r="D919" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="920" spans="1:4">
       <c r="A920" s="1">
-        <v>398</v>
+        <v>6</v>
       </c>
       <c r="B920" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="C920">
         <v>3</v>
       </c>
       <c r="D920" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="921" spans="1:4">
       <c r="A921" s="1">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="B921" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="C921">
         <v>3</v>
       </c>
       <c r="D921" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="922" spans="1:4">
       <c r="A922" s="1">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="B922" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="C922">
         <v>3</v>
       </c>
       <c r="D922" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="923" spans="1:4">
       <c r="A923" s="1">
-        <v>401</v>
+        <v>9</v>
       </c>
       <c r="B923" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="C923">
         <v>3</v>
       </c>
       <c r="D923" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="924" spans="1:4">
       <c r="A924" s="1">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="B924" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="C924">
         <v>3</v>
       </c>
       <c r="D924" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="925" spans="1:4">
       <c r="A925" s="1">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="B925" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="C925">
         <v>3</v>
       </c>
       <c r="D925" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="926" spans="1:4">
       <c r="A926" s="1">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="B926" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="C926">
         <v>3</v>
       </c>
       <c r="D926" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="927" spans="1:4">
       <c r="A927" s="1">
-        <v>405</v>
+        <v>13</v>
       </c>
       <c r="B927" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="C927">
         <v>3</v>
       </c>
       <c r="D927" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="928" spans="1:4">
       <c r="A928" s="1">
-        <v>406</v>
+        <v>14</v>
       </c>
       <c r="B928" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="C928">
         <v>3</v>
       </c>
       <c r="D928" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="1">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="B929" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="C929">
         <v>3</v>
       </c>
       <c r="D929" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="1">
-        <v>408</v>
+        <v>16</v>
       </c>
       <c r="B930" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="C930">
         <v>3</v>
       </c>
       <c r="D930" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="1">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="B931" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="C931">
         <v>3</v>
       </c>
       <c r="D931" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="1">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="B932" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="C932">
         <v>3</v>
       </c>
       <c r="D932" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="1">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="B933" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="C933">
         <v>3</v>
       </c>
       <c r="D933" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="1">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="B934" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C934">
         <v>3</v>
       </c>
       <c r="D934" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="1">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="B935" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="C935">
         <v>3</v>
       </c>
       <c r="D935" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="1">
-        <v>414</v>
+        <v>22</v>
       </c>
       <c r="B936" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="C936">
         <v>3</v>
       </c>
       <c r="D936" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="1">
-        <v>415</v>
+        <v>23</v>
       </c>
       <c r="B937" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="C937">
         <v>3</v>
       </c>
       <c r="D937" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="1">
-        <v>416</v>
+        <v>24</v>
       </c>
       <c r="B938" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C938">
         <v>3</v>
       </c>
       <c r="D938" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="1">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="B939" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C939">
         <v>3</v>
       </c>
       <c r="D939" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="1">
-        <v>418</v>
+        <v>26</v>
       </c>
       <c r="B940" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="C940">
         <v>3</v>
       </c>
       <c r="D940" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="1">
-        <v>419</v>
+        <v>27</v>
       </c>
       <c r="B941" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="C941">
         <v>3</v>
       </c>
       <c r="D941" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="1">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="B942" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="C942">
         <v>3</v>
       </c>
       <c r="D942" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="1">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="B943" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="C943">
         <v>3</v>
       </c>
       <c r="D943" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="1">
-        <v>422</v>
+        <v>30</v>
       </c>
       <c r="B944" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="C944">
         <v>3</v>
       </c>
       <c r="D944" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="945" spans="1:4">
       <c r="A945" s="1">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="B945" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="C945">
         <v>3</v>
       </c>
       <c r="D945" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="946" spans="1:4">
       <c r="A946" s="1">
-        <v>424</v>
+        <v>32</v>
       </c>
       <c r="B946" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="C946">
         <v>3</v>
       </c>
       <c r="D946" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="947" spans="1:4">
       <c r="A947" s="1">
-        <v>425</v>
+        <v>33</v>
       </c>
       <c r="B947" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="C947">
         <v>3</v>
       </c>
       <c r="D947" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="948" spans="1:4">
       <c r="A948" s="1">
-        <v>426</v>
+        <v>34</v>
       </c>
       <c r="B948" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="C948">
         <v>3</v>
       </c>
       <c r="D948" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="949" spans="1:4">
       <c r="A949" s="1">
-        <v>427</v>
+        <v>35</v>
       </c>
       <c r="B949" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C949">
         <v>3</v>
       </c>
       <c r="D949" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="950" spans="1:4">
       <c r="A950" s="1">
-        <v>428</v>
+        <v>36</v>
       </c>
       <c r="B950" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="C950">
         <v>3</v>
       </c>
       <c r="D950" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="951" spans="1:4">
       <c r="A951" s="1">
-        <v>429</v>
+        <v>37</v>
       </c>
       <c r="B951" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="C951">
         <v>3</v>
       </c>
       <c r="D951" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="952" spans="1:4">
       <c r="A952" s="1">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="B952" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="C952">
         <v>3</v>
       </c>
       <c r="D952" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="1">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="B953" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="C953">
         <v>3</v>
       </c>
       <c r="D953" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="954" spans="1:4">
       <c r="A954" s="1">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="B954" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="C954">
         <v>3</v>
       </c>
       <c r="D954" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="955" spans="1:4">
       <c r="A955" s="1">
-        <v>433</v>
+        <v>41</v>
       </c>
       <c r="B955" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="C955">
         <v>3</v>
       </c>
       <c r="D955" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="956" spans="1:4">
       <c r="A956" s="1">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="B956" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="C956">
         <v>3</v>
       </c>
       <c r="D956" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="957" spans="1:4">
       <c r="A957" s="1">
-        <v>435</v>
+        <v>43</v>
       </c>
       <c r="B957" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="C957">
         <v>3</v>
       </c>
       <c r="D957" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="958" spans="1:4">
       <c r="A958" s="1">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="B958" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="C958">
         <v>3</v>
       </c>
       <c r="D958" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="959" spans="1:4">
       <c r="A959" s="1">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="B959" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="C959">
         <v>3</v>
       </c>
       <c r="D959" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="960" spans="1:4">
       <c r="A960" s="1">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="B960" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="C960">
         <v>3</v>
       </c>
       <c r="D960" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="961" spans="1:4">
       <c r="A961" s="1">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="B961" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="C961">
         <v>3</v>
       </c>
       <c r="D961" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="962" spans="1:4">
       <c r="A962" s="1">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="B962" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="C962">
         <v>3</v>
       </c>
       <c r="D962" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="963" spans="1:4">
       <c r="A963" s="1">
-        <v>441</v>
+        <v>49</v>
       </c>
       <c r="B963" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="C963">
         <v>3</v>
       </c>
       <c r="D963" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="964" spans="1:4">
@@ -15217,7 +15214,7 @@
         <v>3</v>
       </c>
       <c r="D964" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15231,7 +15228,7 @@
         <v>3</v>
       </c>
       <c r="D965" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="966" spans="1:4">
@@ -15245,7 +15242,7 @@
         <v>3</v>
       </c>
       <c r="D966" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="967" spans="1:4">
@@ -15259,7 +15256,7 @@
         <v>3</v>
       </c>
       <c r="D967" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="968" spans="1:4">
@@ -15273,7 +15270,7 @@
         <v>3</v>
       </c>
       <c r="D968" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="969" spans="1:4">
@@ -15287,7 +15284,7 @@
         <v>3</v>
       </c>
       <c r="D969" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -15301,7 +15298,7 @@
         <v>3</v>
       </c>
       <c r="D970" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="971" spans="1:4">
@@ -15315,7 +15312,7 @@
         <v>3</v>
       </c>
       <c r="D971" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="972" spans="1:4">
@@ -15329,7 +15326,7 @@
         <v>3</v>
       </c>
       <c r="D972" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -15343,7 +15340,7 @@
         <v>3</v>
       </c>
       <c r="D973" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="974" spans="1:4">
@@ -15357,7 +15354,7 @@
         <v>3</v>
       </c>
       <c r="D974" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="975" spans="1:4">
@@ -15371,7 +15368,7 @@
         <v>3</v>
       </c>
       <c r="D975" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="976" spans="1:4">
@@ -15385,7 +15382,7 @@
         <v>3</v>
       </c>
       <c r="D976" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -15399,7 +15396,7 @@
         <v>3</v>
       </c>
       <c r="D977" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="978" spans="1:4">
@@ -15413,7 +15410,7 @@
         <v>3</v>
       </c>
       <c r="D978" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -15427,7 +15424,7 @@
         <v>3</v>
       </c>
       <c r="D979" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="980" spans="1:4">
@@ -15441,7 +15438,7 @@
         <v>3</v>
       </c>
       <c r="D980" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="981" spans="1:4">
@@ -15455,7 +15452,7 @@
         <v>3</v>
       </c>
       <c r="D981" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="982" spans="1:4">
@@ -15469,7 +15466,7 @@
         <v>3</v>
       </c>
       <c r="D982" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15483,7 +15480,7 @@
         <v>3</v>
       </c>
       <c r="D983" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="984" spans="1:4">
@@ -15497,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="D984" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15511,7 +15508,7 @@
         <v>3</v>
       </c>
       <c r="D985" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -15525,7 +15522,7 @@
         <v>3</v>
       </c>
       <c r="D986" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -15539,7 +15536,7 @@
         <v>3</v>
       </c>
       <c r="D987" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -15553,7 +15550,7 @@
         <v>3</v>
       </c>
       <c r="D988" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -15567,7 +15564,7 @@
         <v>3</v>
       </c>
       <c r="D989" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -15581,7 +15578,7 @@
         <v>3</v>
       </c>
       <c r="D990" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -15595,7 +15592,7 @@
         <v>3</v>
       </c>
       <c r="D991" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="992" spans="1:4">
@@ -15609,7 +15606,7 @@
         <v>3</v>
       </c>
       <c r="D992" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -15623,7 +15620,7 @@
         <v>3</v>
       </c>
       <c r="D993" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="994" spans="1:4">
@@ -15637,7 +15634,7 @@
         <v>3</v>
       </c>
       <c r="D994" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15651,7 +15648,7 @@
         <v>3</v>
       </c>
       <c r="D995" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="996" spans="1:4">
@@ -15665,7 +15662,7 @@
         <v>3</v>
       </c>
       <c r="D996" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="997" spans="1:4">
@@ -15679,7 +15676,7 @@
         <v>3</v>
       </c>
       <c r="D997" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -15693,7 +15690,7 @@
         <v>3</v>
       </c>
       <c r="D998" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -15707,7 +15704,7 @@
         <v>3</v>
       </c>
       <c r="D999" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
@@ -15721,7 +15718,7 @@
         <v>3</v>
       </c>
       <c r="D1000" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
@@ -15735,7 +15732,7 @@
         <v>3</v>
       </c>
       <c r="D1001" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1002" spans="1:4">
@@ -15749,7 +15746,7 @@
         <v>3</v>
       </c>
       <c r="D1002" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1003" spans="1:4">
@@ -15763,7 +15760,7 @@
         <v>3</v>
       </c>
       <c r="D1003" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -15777,7 +15774,7 @@
         <v>3</v>
       </c>
       <c r="D1004" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1005" spans="1:4">
@@ -15791,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="D1005" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1006" spans="1:4">
@@ -15805,7 +15802,7 @@
         <v>3</v>
       </c>
       <c r="D1006" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -15813,13 +15810,13 @@
         <v>43</v>
       </c>
       <c r="B1007" t="s">
-        <v>438</v>
+        <v>325</v>
       </c>
       <c r="C1007">
         <v>3</v>
       </c>
       <c r="D1007" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1008" spans="1:4">
@@ -15827,13 +15824,13 @@
         <v>44</v>
       </c>
       <c r="B1008" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1008">
         <v>3</v>
       </c>
       <c r="D1008" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1009" spans="1:4">
@@ -15841,13 +15838,13 @@
         <v>45</v>
       </c>
       <c r="B1009" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1009">
         <v>3</v>
       </c>
       <c r="D1009" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1010" spans="1:4">
@@ -15855,13 +15852,13 @@
         <v>46</v>
       </c>
       <c r="B1010" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1010">
         <v>3</v>
       </c>
       <c r="D1010" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1011" spans="1:4">
@@ -15869,13 +15866,13 @@
         <v>47</v>
       </c>
       <c r="B1011" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C1011">
         <v>3</v>
       </c>
       <c r="D1011" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1012" spans="1:4">
@@ -15883,13 +15880,13 @@
         <v>48</v>
       </c>
       <c r="B1012" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1012">
         <v>3</v>
       </c>
       <c r="D1012" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1013" spans="1:4">
@@ -15897,726 +15894,26 @@
         <v>49</v>
       </c>
       <c r="B1013" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1013">
         <v>3</v>
       </c>
       <c r="D1013" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1014" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="C1014">
         <v>3</v>
       </c>
       <c r="D1014" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:4">
-      <c r="A1015" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1015">
-        <v>3</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:4">
-      <c r="A1016" s="1">
-        <v>2</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>397</v>
-      </c>
-      <c r="C1016">
-        <v>3</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:4">
-      <c r="A1017" s="1">
-        <v>3</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1017">
-        <v>3</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:4">
-      <c r="A1018" s="1">
-        <v>4</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1018">
-        <v>3</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:4">
-      <c r="A1019" s="1">
-        <v>5</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1019">
-        <v>3</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:4">
-      <c r="A1020" s="1">
-        <v>6</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1020">
-        <v>3</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:4">
-      <c r="A1021" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1021">
-        <v>3</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:4">
-      <c r="A1022" s="1">
-        <v>8</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1022">
-        <v>3</v>
-      </c>
-      <c r="D1022" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:4">
-      <c r="A1023" s="1">
-        <v>9</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>404</v>
-      </c>
-      <c r="C1023">
-        <v>3</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:4">
-      <c r="A1024" s="1">
-        <v>10</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1024">
-        <v>3</v>
-      </c>
-      <c r="D1024" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:4">
-      <c r="A1025" s="1">
-        <v>11</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1025">
-        <v>3</v>
-      </c>
-      <c r="D1025" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:4">
-      <c r="A1026" s="1">
-        <v>12</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1026">
-        <v>3</v>
-      </c>
-      <c r="D1026" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:4">
-      <c r="A1027" s="1">
-        <v>13</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1027">
-        <v>3</v>
-      </c>
-      <c r="D1027" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:4">
-      <c r="A1028" s="1">
-        <v>14</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1028">
-        <v>3</v>
-      </c>
-      <c r="D1028" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:4">
-      <c r="A1029" s="1">
-        <v>15</v>
-      </c>
-      <c r="B1029" t="s">
-        <v>410</v>
-      </c>
-      <c r="C1029">
-        <v>3</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:4">
-      <c r="A1030" s="1">
-        <v>16</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>411</v>
-      </c>
-      <c r="C1030">
-        <v>3</v>
-      </c>
-      <c r="D1030" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:4">
-      <c r="A1031" s="1">
-        <v>17</v>
-      </c>
-      <c r="B1031" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1031">
-        <v>3</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:4">
-      <c r="A1032" s="1">
-        <v>18</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>413</v>
-      </c>
-      <c r="C1032">
-        <v>3</v>
-      </c>
-      <c r="D1032" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:4">
-      <c r="A1033" s="1">
-        <v>19</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>414</v>
-      </c>
-      <c r="C1033">
-        <v>3</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:4">
-      <c r="A1034" s="1">
-        <v>20</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1034">
-        <v>3</v>
-      </c>
-      <c r="D1034" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:4">
-      <c r="A1035" s="1">
-        <v>21</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1035">
-        <v>3</v>
-      </c>
-      <c r="D1035" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:4">
-      <c r="A1036" s="1">
-        <v>22</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>417</v>
-      </c>
-      <c r="C1036">
-        <v>3</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:4">
-      <c r="A1037" s="1">
-        <v>23</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>418</v>
-      </c>
-      <c r="C1037">
-        <v>3</v>
-      </c>
-      <c r="D1037" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:4">
-      <c r="A1038" s="1">
-        <v>24</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1038">
-        <v>3</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:4">
-      <c r="A1039" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1039">
-        <v>3</v>
-      </c>
-      <c r="D1039" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:4">
-      <c r="A1040" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>421</v>
-      </c>
-      <c r="C1040">
-        <v>3</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:4">
-      <c r="A1041" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1041">
-        <v>3</v>
-      </c>
-      <c r="D1041" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:4">
-      <c r="A1042" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1042">
-        <v>3</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:4">
-      <c r="A1043" s="1">
-        <v>29</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1043">
-        <v>3</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:4">
-      <c r="A1044" s="1">
-        <v>30</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>425</v>
-      </c>
-      <c r="C1044">
-        <v>3</v>
-      </c>
-      <c r="D1044" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:4">
-      <c r="A1045" s="1">
-        <v>31</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>426</v>
-      </c>
-      <c r="C1045">
-        <v>3</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:4">
-      <c r="A1046" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>427</v>
-      </c>
-      <c r="C1046">
-        <v>3</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:4">
-      <c r="A1047" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1047">
-        <v>3</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:4">
-      <c r="A1048" s="1">
-        <v>34</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>429</v>
-      </c>
-      <c r="C1048">
-        <v>3</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:4">
-      <c r="A1049" s="1">
-        <v>35</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1049">
-        <v>3</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:4">
-      <c r="A1050" s="1">
-        <v>36</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>431</v>
-      </c>
-      <c r="C1050">
-        <v>3</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:4">
-      <c r="A1051" s="1">
-        <v>37</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1051">
-        <v>3</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:4">
-      <c r="A1052" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1052">
-        <v>3</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:4">
-      <c r="A1053" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1053">
-        <v>3</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:4">
-      <c r="A1054" s="1">
-        <v>40</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>435</v>
-      </c>
-      <c r="C1054">
-        <v>3</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:4">
-      <c r="A1055" s="1">
-        <v>41</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1055">
-        <v>3</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:4">
-      <c r="A1056" s="1">
-        <v>42</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1056">
-        <v>3</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:4">
-      <c r="A1057" s="1">
-        <v>43</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1057">
-        <v>3</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:4">
-      <c r="A1058" s="1">
-        <v>44</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>438</v>
-      </c>
-      <c r="C1058">
-        <v>3</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:4">
-      <c r="A1059" s="1">
-        <v>45</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1059">
-        <v>3</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:4">
-      <c r="A1060" s="1">
-        <v>46</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1060">
-        <v>3</v>
-      </c>
-      <c r="D1060" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:4">
-      <c r="A1061" s="1">
-        <v>47</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>441</v>
-      </c>
-      <c r="C1061">
-        <v>3</v>
-      </c>
-      <c r="D1061" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:4">
-      <c r="A1062" s="1">
-        <v>48</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1062">
-        <v>3</v>
-      </c>
-      <c r="D1062" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:4">
-      <c r="A1063" s="1">
-        <v>49</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1063">
-        <v>3</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4">
-      <c r="A1064" s="1">
-        <v>50</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1064">
-        <v>3</v>
-      </c>
-      <c r="D1064" t="s">
         <v>446</v>
       </c>
     </row>

--- a/data/img_labeling_2nd_round/missing.xlsx
+++ b/data/img_labeling_2nd_round/missing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>images</t>
   </si>
@@ -23,12 +23,6 @@
   </si>
   <si>
     <t>user</t>
-  </si>
-  <si>
-    <t>2058401-_providedCHO_fb5088d6_80da_05ab_8910_92bad635b6a6_1.jpeg</t>
-  </si>
-  <si>
-    <t>Yalemisew</t>
   </si>
 </sst>
 </file>
@@ -386,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,20 +397,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/img_labeling_2nd_round/missing.xlsx
+++ b/data/img_labeling_2nd_round/missing.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,25 +420,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>